--- a/Code/Results/Cases/Case_0_61/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_61/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -444,73 +447,76 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>

--- a/Code/Results/Cases/Case_0_61/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_61/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -418,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.2736683506749813</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1.865260913356764</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>2.992416552171477</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>23.93728573277218</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0004328892537563114</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -450,120 +456,1092 @@
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>21.84265730734765</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0.1956976204930783</v>
+      </c>
+      <c r="D3">
+        <v>1.294538813301699</v>
+      </c>
+      <c r="E3">
+        <v>2.005300822404621</v>
+      </c>
+      <c r="F3">
+        <v>16.94545950122324</v>
+      </c>
+      <c r="G3">
+        <v>0.0005174389398032942</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>15.43436152029088</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0.1654726175550252</v>
+      </c>
+      <c r="D4">
+        <v>1.084340845451777</v>
+      </c>
+      <c r="E4">
+        <v>1.662240258407024</v>
+      </c>
+      <c r="F4">
+        <v>14.29169672226044</v>
+      </c>
+      <c r="G4">
+        <v>0.000552646859460331</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>13.00884111524715</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0.1547289338675597</v>
+      </c>
+      <c r="D5">
+        <v>1.010756329311818</v>
+      </c>
+      <c r="E5">
+        <v>1.544029085471479</v>
+      </c>
+      <c r="F5">
+        <v>13.35434315775086</v>
+      </c>
+      <c r="G5">
+        <v>0.0005656225719965342</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>12.15280638684661</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0.1530131794709177</v>
+      </c>
+      <c r="D6">
+        <v>0.9990557150487405</v>
+      </c>
+      <c r="E6">
+        <v>1.525313552620503</v>
+      </c>
+      <c r="F6">
+        <v>13.20492081892689</v>
+      </c>
+      <c r="G6">
+        <v>0.0005677202722758054</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>12.01637815472998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0.1653226919151507</v>
+      </c>
+      <c r="D7">
+        <v>1.083310137138142</v>
+      </c>
+      <c r="E7">
+        <v>1.660578198348176</v>
+      </c>
+      <c r="F7">
+        <v>14.27859565634213</v>
+      </c>
+      <c r="G7">
+        <v>0.0005528261117484501</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>12.99687423699035</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0.238850145726488</v>
+      </c>
+      <c r="D8">
+        <v>1.604374428987455</v>
+      </c>
+      <c r="E8">
+        <v>2.529023344957494</v>
+      </c>
+      <c r="F8">
+        <v>20.78425219984774</v>
+      </c>
+      <c r="G8">
+        <v>0.0004697661575536655</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>18.9490837535393</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0.238850145726488</v>
+      </c>
+      <c r="D9">
+        <v>1.604374428987455</v>
+      </c>
+      <c r="E9">
+        <v>2.529023344957494</v>
+      </c>
+      <c r="F9">
+        <v>20.78425219984774</v>
+      </c>
+      <c r="G9">
+        <v>0.0004697661575536655</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>18.9490837535393</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0.238850145726488</v>
+      </c>
+      <c r="D10">
+        <v>1.604374428987455</v>
+      </c>
+      <c r="E10">
+        <v>2.529023344957494</v>
+      </c>
+      <c r="F10">
+        <v>20.78425219984774</v>
+      </c>
+      <c r="G10">
+        <v>0.0004697661575536655</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>18.9490837535393</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0.238850145726488</v>
+      </c>
+      <c r="D11">
+        <v>1.604374428987455</v>
+      </c>
+      <c r="E11">
+        <v>2.529023344957494</v>
+      </c>
+      <c r="F11">
+        <v>20.78425219984774</v>
+      </c>
+      <c r="G11">
+        <v>0.0004697661575536655</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>18.9490837535393</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0.238850145726488</v>
+      </c>
+      <c r="D12">
+        <v>1.604374428987455</v>
+      </c>
+      <c r="E12">
+        <v>2.529023344957494</v>
+      </c>
+      <c r="F12">
+        <v>20.78425219984774</v>
+      </c>
+      <c r="G12">
+        <v>0.0004697661575536655</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>18.9490837535393</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0.238850145726488</v>
+      </c>
+      <c r="D13">
+        <v>1.604374428987455</v>
+      </c>
+      <c r="E13">
+        <v>2.529023344957494</v>
+      </c>
+      <c r="F13">
+        <v>20.78425219984774</v>
+      </c>
+      <c r="G13">
+        <v>0.0004697661575536655</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>18.9490837535393</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0.238850145726488</v>
+      </c>
+      <c r="D14">
+        <v>1.604374428987455</v>
+      </c>
+      <c r="E14">
+        <v>2.529023344957494</v>
+      </c>
+      <c r="F14">
+        <v>20.78425219984774</v>
+      </c>
+      <c r="G14">
+        <v>0.0004697661575536655</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>18.9490837535393</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0.238850145726488</v>
+      </c>
+      <c r="D15">
+        <v>1.604374428987455</v>
+      </c>
+      <c r="E15">
+        <v>2.529023344957494</v>
+      </c>
+      <c r="F15">
+        <v>20.78425219984774</v>
+      </c>
+      <c r="G15">
+        <v>0.0004697661575536655</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>18.9490837535393</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0.238850145726488</v>
+      </c>
+      <c r="D16">
+        <v>1.604374428987455</v>
+      </c>
+      <c r="E16">
+        <v>2.529023344957494</v>
+      </c>
+      <c r="F16">
+        <v>20.78425219984774</v>
+      </c>
+      <c r="G16">
+        <v>0.0004697661575536655</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>18.9490837535393</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0.238850145726488</v>
+      </c>
+      <c r="D17">
+        <v>1.604374428987455</v>
+      </c>
+      <c r="E17">
+        <v>2.529023344957494</v>
+      </c>
+      <c r="F17">
+        <v>20.78425219984774</v>
+      </c>
+      <c r="G17">
+        <v>0.0004697661575536655</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>18.9490837535393</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0.238850145726488</v>
+      </c>
+      <c r="D18">
+        <v>1.604374428987455</v>
+      </c>
+      <c r="E18">
+        <v>2.529023344957494</v>
+      </c>
+      <c r="F18">
+        <v>20.78425219984774</v>
+      </c>
+      <c r="G18">
+        <v>0.0004697661575536655</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>18.9490837535393</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0.238850145726488</v>
+      </c>
+      <c r="D19">
+        <v>1.604374428987455</v>
+      </c>
+      <c r="E19">
+        <v>2.529023344957494</v>
+      </c>
+      <c r="F19">
+        <v>20.78425219984774</v>
+      </c>
+      <c r="G19">
+        <v>0.0004697661575536655</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>18.9490837535393</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0.238850145726488</v>
+      </c>
+      <c r="D20">
+        <v>1.604374428987455</v>
+      </c>
+      <c r="E20">
+        <v>2.529023344957494</v>
+      </c>
+      <c r="F20">
+        <v>20.78425219984774</v>
+      </c>
+      <c r="G20">
+        <v>0.0004697661575536655</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>18.9490837535393</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0.238850145726488</v>
+      </c>
+      <c r="D21">
+        <v>1.604374428987455</v>
+      </c>
+      <c r="E21">
+        <v>2.529023344957494</v>
+      </c>
+      <c r="F21">
+        <v>20.78425219984774</v>
+      </c>
+      <c r="G21">
+        <v>0.0004697661575536655</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>18.9490837535393</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0.238850145726488</v>
+      </c>
+      <c r="D22">
+        <v>1.604374428987455</v>
+      </c>
+      <c r="E22">
+        <v>2.529023344957494</v>
+      </c>
+      <c r="F22">
+        <v>20.78425219984774</v>
+      </c>
+      <c r="G22">
+        <v>0.0004697661575536655</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>18.9490837535393</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0.238850145726488</v>
+      </c>
+      <c r="D23">
+        <v>1.604374428987455</v>
+      </c>
+      <c r="E23">
+        <v>2.529023344957494</v>
+      </c>
+      <c r="F23">
+        <v>20.78425219984774</v>
+      </c>
+      <c r="G23">
+        <v>0.0004697661575536655</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>18.9490837535393</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0.238850145726488</v>
+      </c>
+      <c r="D24">
+        <v>1.604374428987455</v>
+      </c>
+      <c r="E24">
+        <v>2.529023344957494</v>
+      </c>
+      <c r="F24">
+        <v>20.78425219984774</v>
+      </c>
+      <c r="G24">
+        <v>0.0004697661575536655</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>18.9490837535393</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0.238850145726488</v>
+      </c>
+      <c r="D25">
+        <v>1.604374428987455</v>
+      </c>
+      <c r="E25">
+        <v>2.529023344957494</v>
+      </c>
+      <c r="F25">
+        <v>20.78425219984774</v>
+      </c>
+      <c r="G25">
+        <v>0.0004697661575536655</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>18.9490837535393</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_61/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_61/res_line/pl_mw.xlsx
@@ -424,28 +424,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.2736683506749813</v>
+        <v>0.0510177907859557</v>
       </c>
       <c r="D2">
-        <v>1.865260913356764</v>
+        <v>0.1993181486128748</v>
       </c>
       <c r="E2">
-        <v>2.992416552171477</v>
+        <v>0.6691314077918804</v>
       </c>
       <c r="F2">
-        <v>23.93728573277218</v>
+        <v>0.2327651607527841</v>
       </c>
       <c r="G2">
-        <v>0.0004328892537563114</v>
+        <v>0.0007343676136315476</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.354122743455946</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1.370728064434331</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>33.74482140510645</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>21.84265730734765</v>
+        <v>1.3090434529405</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,28 +471,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1956976204930783</v>
+        <v>0.0443304673344187</v>
       </c>
       <c r="D3">
-        <v>1.294538813301699</v>
+        <v>0.1724247203137139</v>
       </c>
       <c r="E3">
-        <v>2.005300822404621</v>
+        <v>0.5614233498264838</v>
       </c>
       <c r="F3">
-        <v>16.94545950122324</v>
+        <v>0.1753716753883836</v>
       </c>
       <c r="G3">
-        <v>0.0005174389398032942</v>
+        <v>0.000745374163900603</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.292008249975197</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1.145512210994241</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>28.7626103592105</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>15.43436152029088</v>
+        <v>1.06599868030662</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,28 +518,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1654726175550252</v>
+        <v>0.04029185418661285</v>
       </c>
       <c r="D4">
-        <v>1.084340845451777</v>
+        <v>0.1574161056643391</v>
       </c>
       <c r="E4">
-        <v>1.662240258407024</v>
+        <v>0.500491358462412</v>
       </c>
       <c r="F4">
-        <v>14.29169672226044</v>
+        <v>0.1523436736769099</v>
       </c>
       <c r="G4">
-        <v>0.000552646859460331</v>
+        <v>0.0007520449867149014</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.2602234720421137</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1.017773119323095</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>25.8342474846562</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>13.00884111524715</v>
+        <v>0.946671577855966</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,28 +565,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1547289338675597</v>
+        <v>0.03865819959393946</v>
       </c>
       <c r="D5">
-        <v>1.010756329311818</v>
+        <v>0.151593324467953</v>
       </c>
       <c r="E5">
-        <v>1.544029085471479</v>
+        <v>0.4766655486387847</v>
       </c>
       <c r="F5">
-        <v>13.35434315775086</v>
+        <v>0.1454673224359269</v>
       </c>
       <c r="G5">
-        <v>0.0005656225719965342</v>
+        <v>0.0007547546180601022</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.248582723986253</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.9677506267017009</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>24.66567096787998</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>12.15280638684661</v>
+        <v>0.9042103052437369</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,28 +612,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1530131794709177</v>
+        <v>0.03838754633412123</v>
       </c>
       <c r="D6">
-        <v>0.9990557150487405</v>
+        <v>0.1506421275605589</v>
       </c>
       <c r="E6">
-        <v>1.525313552620503</v>
+        <v>0.4727625939662943</v>
       </c>
       <c r="F6">
-        <v>13.20492081892689</v>
+        <v>0.1444630196984775</v>
       </c>
       <c r="G6">
-        <v>0.0005677202722758054</v>
+        <v>0.0007552043444757707</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.2467218783421927</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.9595521179592765</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>24.47292621002657</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>12.01637815472998</v>
+        <v>0.8974982848118316</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,28 +659,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1653226919151507</v>
+        <v>0.04026977857317604</v>
       </c>
       <c r="D7">
-        <v>1.083310137138142</v>
+        <v>0.157336484961391</v>
       </c>
       <c r="E7">
-        <v>1.660578198348176</v>
+        <v>0.500166310253924</v>
       </c>
       <c r="F7">
-        <v>14.27859565634213</v>
+        <v>0.152241429010445</v>
       </c>
       <c r="G7">
-        <v>0.0005528261117484501</v>
+        <v>0.0007520815502630876</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.2600614995397734</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1.017090969112473</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>25.81839663769921</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>12.99687423699035</v>
+        <v>0.9460755273643713</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.238850145726488</v>
+        <v>0.04869462899947052</v>
       </c>
       <c r="D8">
-        <v>1.604374428987455</v>
+        <v>0.1896735733783572</v>
       </c>
       <c r="E8">
-        <v>2.529023344957494</v>
+        <v>0.6307022573226035</v>
       </c>
       <c r="F8">
-        <v>20.78425219984774</v>
+        <v>0.2100540227160081</v>
       </c>
       <c r="G8">
-        <v>0.0004697661575536655</v>
+        <v>0.0007381898563384203</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.3311913820467325</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1.290453155833603</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>31.99418477191705</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>18.9490837535393</v>
+        <v>1.218107697124879</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,28 +753,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.238850145726488</v>
+        <v>0.06607858911596054</v>
       </c>
       <c r="D9">
-        <v>1.604374428987455</v>
+        <v>0.2708755154494042</v>
       </c>
       <c r="E9">
-        <v>2.529023344957494</v>
+        <v>0.9485960921975902</v>
       </c>
       <c r="F9">
-        <v>20.78425219984774</v>
+        <v>0.4570366826831247</v>
       </c>
       <c r="G9">
-        <v>0.0004697661575536655</v>
+        <v>0.0007093910801125314</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.5394364617094993</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1.952178400415761</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>45.68482819495978</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>18.9490837535393</v>
+        <v>2.076071172796446</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,28 +800,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.238850145726488</v>
+        <v>0.08019697276097304</v>
       </c>
       <c r="D10">
-        <v>1.604374428987455</v>
+        <v>0.3564543560235762</v>
       </c>
       <c r="E10">
-        <v>2.529023344957494</v>
+        <v>1.272119122678987</v>
       </c>
       <c r="F10">
-        <v>20.78425219984774</v>
+        <v>0.8081046832339425</v>
       </c>
       <c r="G10">
-        <v>0.0004697661575536655</v>
+        <v>0.0006851875841521731</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.7774584768080217</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>2.620758427808056</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>58.04588138403585</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>18.9490837535393</v>
+        <v>3.1103589229958</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,28 +847,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.238850145726488</v>
+        <v>0.08736427646756795</v>
       </c>
       <c r="D11">
-        <v>1.604374428987455</v>
+        <v>0.4095907213312984</v>
       </c>
       <c r="E11">
-        <v>2.529023344957494</v>
+        <v>1.467983215057117</v>
       </c>
       <c r="F11">
-        <v>20.78425219984774</v>
+        <v>1.051083640317444</v>
       </c>
       <c r="G11">
-        <v>0.0004697661575536655</v>
+        <v>0.0006723994110725476</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.9263483325844319</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>3.023312293670074</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>64.89640128606828</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>18.9490837535393</v>
+        <v>3.775151268057641</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,28 +894,28 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.238850145726488</v>
+        <v>0.09028545794100751</v>
       </c>
       <c r="D12">
-        <v>1.604374428987455</v>
+        <v>0.4336895952981621</v>
       </c>
       <c r="E12">
-        <v>2.529023344957494</v>
+        <v>1.555646843860288</v>
       </c>
       <c r="F12">
-        <v>20.78425219984774</v>
+        <v>1.16499889662645</v>
       </c>
       <c r="G12">
-        <v>0.0004697661575536655</v>
+        <v>0.000667060215454222</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.9932211616174129</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>3.202956396608471</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>67.82599646108656</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>18.9490837535393</v>
+        <v>4.077312308117882</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.238850145726488</v>
+        <v>0.08964401567875768</v>
       </c>
       <c r="D13">
-        <v>1.604374428987455</v>
+        <v>0.4282620507367625</v>
       </c>
       <c r="E13">
-        <v>2.529023344957494</v>
+        <v>1.535964814706034</v>
       </c>
       <c r="F13">
-        <v>20.78425219984774</v>
+        <v>1.13918838187913</v>
       </c>
       <c r="G13">
-        <v>0.0004697661575536655</v>
+        <v>0.0006682395794768179</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.9782117351026045</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>3.162651392553869</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>67.17523470424845</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>18.9490837535393</v>
+        <v>4.009313434657884</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,28 +988,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.238850145726488</v>
+        <v>0.08759941357153878</v>
       </c>
       <c r="D14">
-        <v>1.604374428987455</v>
+        <v>0.4114733706036304</v>
       </c>
       <c r="E14">
-        <v>2.529023344957494</v>
+        <v>1.47485724817696</v>
       </c>
       <c r="F14">
-        <v>20.78425219984774</v>
+        <v>1.059914901812171</v>
       </c>
       <c r="G14">
-        <v>0.0004697661575536655</v>
+        <v>0.000671972583363394</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.9315924961216027</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>3.03741060680241</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>65.12905404944087</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>18.9490837535393</v>
+        <v>3.79877104337109</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,28 +1035,28 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.238850145726488</v>
+        <v>0.08637904372200467</v>
       </c>
       <c r="D15">
-        <v>1.604374428987455</v>
+        <v>0.4018059263493825</v>
       </c>
       <c r="E15">
-        <v>2.529023344957494</v>
+        <v>1.43951227922129</v>
       </c>
       <c r="F15">
-        <v>20.78425219984774</v>
+        <v>1.014703614415858</v>
       </c>
       <c r="G15">
-        <v>0.0004697661575536655</v>
+        <v>0.0006741824575984823</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.9046327380614301</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>2.964898421964989</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>63.92736671950894</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>18.9490837535393</v>
+        <v>3.677485082442701</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,28 +1082,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.238850145726488</v>
+        <v>0.07974980906689666</v>
       </c>
       <c r="D16">
-        <v>1.604374428987455</v>
+        <v>0.3533878942893267</v>
       </c>
       <c r="E16">
-        <v>2.529023344957494</v>
+        <v>1.260703954884889</v>
       </c>
       <c r="F16">
-        <v>20.78425219984774</v>
+        <v>0.7945290819576414</v>
       </c>
       <c r="G16">
-        <v>0.0004697661575536655</v>
+        <v>0.0006859723646811809</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.7688411705503029</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>2.597246436226527</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>57.63285992068938</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>18.9490837535393</v>
+        <v>3.072250296753083</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,28 +1129,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.238850145726488</v>
+        <v>0.0759172733055351</v>
       </c>
       <c r="D17">
-        <v>1.604374428987455</v>
+        <v>0.3281582085742087</v>
       </c>
       <c r="E17">
-        <v>2.529023344957494</v>
+        <v>1.166301249349686</v>
       </c>
       <c r="F17">
-        <v>20.78425219984774</v>
+        <v>0.6851920290472435</v>
       </c>
       <c r="G17">
-        <v>0.0004697661575536655</v>
+        <v>0.0006926434820525632</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.6980206447769746</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>2.402587312327597</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>54.15542029547521</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>18.9490837535393</v>
+        <v>2.760757943667102</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,28 +1176,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.238850145726488</v>
+        <v>0.07377455792329357</v>
       </c>
       <c r="D18">
-        <v>1.604374428987455</v>
+        <v>0.3148201274845945</v>
       </c>
       <c r="E18">
-        <v>2.529023344957494</v>
+        <v>1.116037487567837</v>
       </c>
       <c r="F18">
-        <v>20.78425219984774</v>
+        <v>0.6293067320142356</v>
       </c>
       <c r="G18">
-        <v>0.0004697661575536655</v>
+        <v>0.0006963334881388871</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.6607184624319871</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>2.298784319894651</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>52.2574081999129</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>18.9490837535393</v>
+        <v>2.597993857888696</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,28 +1223,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.238850145726488</v>
+        <v>0.07305802776665615</v>
       </c>
       <c r="D19">
-        <v>1.604374428987455</v>
+        <v>0.3104743879669485</v>
       </c>
       <c r="E19">
-        <v>2.529023344957494</v>
+        <v>1.099606230012739</v>
       </c>
       <c r="F19">
-        <v>20.78425219984774</v>
+        <v>0.611421361228274</v>
       </c>
       <c r="G19">
-        <v>0.0004697661575536655</v>
+        <v>0.0006975616096306409</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.6485992104296656</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>2.264826920662273</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>51.62969317150703</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>18.9490837535393</v>
+        <v>2.545321346360055</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,28 +1270,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.238850145726488</v>
+        <v>0.07631845190395836</v>
       </c>
       <c r="D20">
-        <v>1.604374428987455</v>
+        <v>0.3307144705786129</v>
       </c>
       <c r="E20">
-        <v>2.529023344957494</v>
+        <v>1.175905863614204</v>
       </c>
       <c r="F20">
-        <v>20.78425219984774</v>
+        <v>0.696063788363773</v>
       </c>
       <c r="G20">
-        <v>0.0004697661575536655</v>
+        <v>0.0006919495761710899</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.7051842455496171</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>2.422409826296246</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>54.51435773567658</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>18.9490837535393</v>
+        <v>2.792122436928679</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,28 +1317,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.238850145726488</v>
+        <v>0.08819289602024583</v>
       </c>
       <c r="D21">
-        <v>1.604374428987455</v>
+        <v>0.4162684781601627</v>
       </c>
       <c r="E21">
-        <v>2.529023344957494</v>
+        <v>1.492345678744158</v>
       </c>
       <c r="F21">
-        <v>20.78425219984774</v>
+        <v>1.082463614727175</v>
       </c>
       <c r="G21">
-        <v>0.0004697661575536655</v>
+        <v>0.0006708930348457025</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.9449352500322235</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>3.073269515941718</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>65.71867632878144</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>18.9490837535393</v>
+        <v>3.858925932888326</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,28 +1364,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.238850145726488</v>
+        <v>0.09736801300803677</v>
       </c>
       <c r="D22">
-        <v>1.604374428987455</v>
+        <v>0.4994364820522179</v>
       </c>
       <c r="E22">
-        <v>2.529023344957494</v>
+        <v>1.791324982681843</v>
       </c>
       <c r="F22">
-        <v>20.78425219984774</v>
+        <v>1.482564561312373</v>
       </c>
       <c r="G22">
-        <v>0.0004697661575536655</v>
+        <v>0.0006537485270000087</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1.171949074029001</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>3.684317820621004</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>75.32227670797118</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>18.9490837535393</v>
+        <v>4.894512990313729</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,28 +1411,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.238850145726488</v>
+        <v>0.09225543592698671</v>
       </c>
       <c r="D23">
-        <v>1.604374428987455</v>
+        <v>0.4508677380770933</v>
       </c>
       <c r="E23">
-        <v>2.529023344957494</v>
+        <v>1.617708416777162</v>
       </c>
       <c r="F23">
-        <v>20.78425219984774</v>
+        <v>1.247190164846565</v>
       </c>
       <c r="G23">
-        <v>0.0004697661575536655</v>
+        <v>0.0006634123905550474</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1.040498553004866</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>3.329939747214468</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>69.85223270203124</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>18.9490837535393</v>
+        <v>4.292155763585953</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,28 +1458,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.238850145726488</v>
+        <v>0.07613689551616432</v>
       </c>
       <c r="D24">
-        <v>1.604374428987455</v>
+        <v>0.3295552540010647</v>
       </c>
       <c r="E24">
-        <v>2.529023344957494</v>
+        <v>1.17155147851868</v>
       </c>
       <c r="F24">
-        <v>20.78425219984774</v>
+        <v>0.6911274875630866</v>
       </c>
       <c r="G24">
-        <v>0.0004697661575536655</v>
+        <v>0.0006922637304524853</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.7019352060222133</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>2.413423514276246</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>54.35177548861827</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>18.9490837535393</v>
+        <v>2.777892963841424</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,28 +1505,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.238850145726488</v>
+        <v>0.06122443327196692</v>
       </c>
       <c r="D25">
-        <v>1.604374428987455</v>
+        <v>0.2459400959847642</v>
       </c>
       <c r="E25">
-        <v>2.529023344957494</v>
+        <v>0.852244765032637</v>
       </c>
       <c r="F25">
-        <v>20.78425219984774</v>
+        <v>0.3694314977177342</v>
       </c>
       <c r="G25">
-        <v>0.0004697661575536655</v>
+        <v>0.0007175020289027824</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.4725261073588953</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>1.752146585586189</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>41.71501902006179</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>18.9490837535393</v>
+        <v>1.793914776821083</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_61/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_61/res_line/pl_mw.xlsx
@@ -424,28 +424,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.0510177907859557</v>
+        <v>0.01925498268004588</v>
       </c>
       <c r="D2">
-        <v>0.1993181486128748</v>
+        <v>0.1667097795782269</v>
       </c>
       <c r="E2">
-        <v>0.6691314077918804</v>
+        <v>0.2543256217524998</v>
       </c>
       <c r="F2">
-        <v>0.2327651607527841</v>
+        <v>0.8397382084503349</v>
       </c>
       <c r="G2">
-        <v>0.0007343676136315476</v>
+        <v>0.002417707810360123</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.354122743455946</v>
+        <v>0.498533902315117</v>
       </c>
       <c r="J2">
-        <v>1.370728064434331</v>
+        <v>0.4359200581151583</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>33.74482140510645</v>
+        <v>10.90718762146201</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.3090434529405</v>
+        <v>2.255514619255877</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,28 +471,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0443304673344187</v>
+        <v>0.01721866860775378</v>
       </c>
       <c r="D3">
-        <v>0.1724247203137139</v>
+        <v>0.1633099938318594</v>
       </c>
       <c r="E3">
-        <v>0.5614233498264838</v>
+        <v>0.2344801607916764</v>
       </c>
       <c r="F3">
-        <v>0.1753716753883836</v>
+        <v>0.8783816250633762</v>
       </c>
       <c r="G3">
-        <v>0.000745374163900603</v>
+        <v>0.002422913184348985</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.292008249975197</v>
+        <v>0.5092947226778008</v>
       </c>
       <c r="J3">
-        <v>1.145512210994241</v>
+        <v>0.392047190437836</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>28.7626103592105</v>
+        <v>9.579478518004578</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.06599868030662</v>
+        <v>2.320578258041337</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,28 +518,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.04029185418661285</v>
+        <v>0.0159636772293652</v>
       </c>
       <c r="D4">
-        <v>0.1574161056643391</v>
+        <v>0.1613565756093749</v>
       </c>
       <c r="E4">
-        <v>0.500491358462412</v>
+        <v>0.2224950797027887</v>
       </c>
       <c r="F4">
-        <v>0.1523436736769099</v>
+        <v>0.9038516372634078</v>
       </c>
       <c r="G4">
-        <v>0.0007520449867149014</v>
+        <v>0.002426247004729312</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.2602234720421137</v>
+        <v>0.5168163124166583</v>
       </c>
       <c r="J4">
-        <v>1.017773119323095</v>
+        <v>0.3653987628547952</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>25.8342474846562</v>
+        <v>8.761117010601197</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.946671577855966</v>
+        <v>2.364817866070211</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,28 +565,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.03865819959393946</v>
+        <v>0.01545111575262581</v>
       </c>
       <c r="D5">
-        <v>0.151593324467953</v>
+        <v>0.1605938705758092</v>
       </c>
       <c r="E5">
-        <v>0.4766655486387847</v>
+        <v>0.2176596931779571</v>
       </c>
       <c r="F5">
-        <v>0.1454673224359269</v>
+        <v>0.9146618598368406</v>
       </c>
       <c r="G5">
-        <v>0.0007547546180601022</v>
+        <v>0.002427640371259938</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.248582723986253</v>
+        <v>0.5201075537421147</v>
       </c>
       <c r="J5">
-        <v>0.9677506267017009</v>
+        <v>0.3546085729361721</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>24.66567096787998</v>
+        <v>8.426808567558339</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.9042103052437369</v>
+        <v>2.383906797475234</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,28 +612,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.03838754633412123</v>
+        <v>0.01536593745467485</v>
       </c>
       <c r="D6">
-        <v>0.1506421275605589</v>
+        <v>0.1604692264857448</v>
       </c>
       <c r="E6">
-        <v>0.4727625939662943</v>
+        <v>0.2168596713377298</v>
       </c>
       <c r="F6">
-        <v>0.1444630196984775</v>
+        <v>0.9164827086960585</v>
       </c>
       <c r="G6">
-        <v>0.0007552043444757707</v>
+        <v>0.002427873846409188</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.2467218783421927</v>
+        <v>0.5206676091192364</v>
       </c>
       <c r="J6">
-        <v>0.9595521179592765</v>
+        <v>0.3528209537351756</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>24.47292621002657</v>
+        <v>8.371246646729389</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.8974982848118316</v>
+        <v>2.387140057316799</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,28 +659,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.04026977857317604</v>
+        <v>0.01595676922165268</v>
       </c>
       <c r="D7">
-        <v>0.157336484961391</v>
+        <v>0.1613461550328879</v>
       </c>
       <c r="E7">
-        <v>0.500166310253924</v>
+        <v>0.2224296732169151</v>
       </c>
       <c r="F7">
-        <v>0.152241429010445</v>
+        <v>0.9039956921847967</v>
       </c>
       <c r="G7">
-        <v>0.0007520815502630876</v>
+        <v>0.002426265654903232</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.2600614995397734</v>
+        <v>0.5168597886416535</v>
       </c>
       <c r="J7">
-        <v>1.017090969112473</v>
+        <v>0.3652529666856594</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>25.81839663769921</v>
+        <v>8.756611763382296</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.9460755273643713</v>
+        <v>2.365071033906759</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.04869462899947052</v>
+        <v>0.01855385406994259</v>
       </c>
       <c r="D8">
-        <v>0.1896735733783572</v>
+        <v>0.165509465036962</v>
       </c>
       <c r="E8">
-        <v>0.6307022573226035</v>
+        <v>0.2474403097269544</v>
       </c>
       <c r="F8">
-        <v>0.2100540227160081</v>
+        <v>0.8526963598991451</v>
       </c>
       <c r="G8">
-        <v>0.0007381898563384203</v>
+        <v>0.002419474155459154</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.3311913820467325</v>
+        <v>0.5020521524759261</v>
       </c>
       <c r="J8">
-        <v>1.290453155833603</v>
+        <v>0.4207303133547384</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>31.99418477191705</v>
+        <v>10.45002640054662</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.218107697124879</v>
+        <v>2.277047310750845</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,28 +753,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.06607858911596054</v>
+        <v>0.02360840491914473</v>
       </c>
       <c r="D9">
-        <v>0.2708755154494042</v>
+        <v>0.1747573082237182</v>
       </c>
       <c r="E9">
-        <v>0.9485960921975902</v>
+        <v>0.298159455519297</v>
       </c>
       <c r="F9">
-        <v>0.4570366826831247</v>
+        <v>0.7662534958051879</v>
       </c>
       <c r="G9">
-        <v>0.0007093910801125314</v>
+        <v>0.002407239963772831</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.5394364617094993</v>
+        <v>0.480441802095676</v>
       </c>
       <c r="J9">
-        <v>1.952178400415761</v>
+        <v>0.5320007019089132</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>45.68482819495978</v>
+        <v>13.74758621742137</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.076071172796446</v>
+        <v>2.139282446656637</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,28 +800,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.08019697276097304</v>
+        <v>0.02729774720435785</v>
       </c>
       <c r="D10">
-        <v>0.3564543560235762</v>
+        <v>0.1822437086135977</v>
       </c>
       <c r="E10">
-        <v>1.272119122678987</v>
+        <v>0.3365754539032508</v>
       </c>
       <c r="F10">
-        <v>0.8081046832339425</v>
+        <v>0.7118257097720431</v>
       </c>
       <c r="G10">
-        <v>0.0006851875841521731</v>
+        <v>0.002398899621352146</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.7774584768080217</v>
+        <v>0.4693320815893358</v>
       </c>
       <c r="J10">
-        <v>2.620758427808056</v>
+        <v>0.6155418225636993</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>58.04588138403585</v>
+        <v>16.15910508266336</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.1103589229958</v>
+        <v>2.060434551546564</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,28 +847,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.08736427646756795</v>
+        <v>0.02897078861992952</v>
       </c>
       <c r="D11">
-        <v>0.4095907213312984</v>
+        <v>0.1858075070338572</v>
       </c>
       <c r="E11">
-        <v>1.467983215057117</v>
+        <v>0.3543343147341886</v>
       </c>
       <c r="F11">
-        <v>1.051083640317444</v>
+        <v>0.6891369759877435</v>
       </c>
       <c r="G11">
-        <v>0.0006723994110725476</v>
+        <v>0.002395243255625836</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.9263483325844319</v>
+        <v>0.4653659401093648</v>
       </c>
       <c r="J11">
-        <v>3.023312293670074</v>
+        <v>0.6540031724083804</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>64.89640128606828</v>
+        <v>17.25449776207904</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.775151268057641</v>
+        <v>2.029668998846148</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,28 +894,28 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.09028545794100751</v>
+        <v>0.0296035612972787</v>
       </c>
       <c r="D12">
-        <v>0.4336895952981621</v>
+        <v>0.1871804608171317</v>
       </c>
       <c r="E12">
-        <v>1.555646843860288</v>
+        <v>0.3611026623215992</v>
       </c>
       <c r="F12">
-        <v>1.16499889662645</v>
+        <v>0.680851638294854</v>
       </c>
       <c r="G12">
-        <v>0.000667060215454222</v>
+        <v>0.002393878253926895</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.9932211616174129</v>
+        <v>0.4640249301223776</v>
       </c>
       <c r="J12">
-        <v>3.202956396608471</v>
+        <v>0.6686392203418166</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>67.82599646108656</v>
+        <v>17.66912689178804</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>4.077312308117882</v>
+        <v>2.018773600850921</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.08964401567875768</v>
+        <v>0.02946731690455806</v>
       </c>
       <c r="D13">
-        <v>0.4282620507367625</v>
+        <v>0.1868837177361229</v>
       </c>
       <c r="E13">
-        <v>1.535964814706034</v>
+        <v>0.3596429995775452</v>
       </c>
       <c r="F13">
-        <v>1.13918838187913</v>
+        <v>0.6826222676281617</v>
       </c>
       <c r="G13">
-        <v>0.0006682395794768179</v>
+        <v>0.002394171363972672</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.9782117351026045</v>
+        <v>0.4643065131939039</v>
       </c>
       <c r="J13">
-        <v>3.162651392553869</v>
+        <v>0.6654838075427847</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>67.17523470424845</v>
+        <v>17.57983572458591</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>4.009313434657884</v>
+        <v>2.021086207079492</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,28 +988,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.08759941357153878</v>
+        <v>0.02902286275158872</v>
       </c>
       <c r="D14">
-        <v>0.4114733706036304</v>
+        <v>0.1859199873445192</v>
       </c>
       <c r="E14">
-        <v>1.47485724817696</v>
+        <v>0.3548902636263875</v>
       </c>
       <c r="F14">
-        <v>1.059914901812171</v>
+        <v>0.6884491455959534</v>
       </c>
       <c r="G14">
-        <v>0.000671972583363394</v>
+        <v>0.002395130564742782</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.9315924961216027</v>
+        <v>0.4652523641747024</v>
       </c>
       <c r="J14">
-        <v>3.03741060680241</v>
+        <v>0.6552058204832178</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>65.12905404944087</v>
+        <v>17.28861263483253</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.79877104337109</v>
+        <v>2.028757377249121</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,28 +1035,28 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.08637904372200467</v>
+        <v>0.02875052085343555</v>
       </c>
       <c r="D15">
-        <v>0.4018059263493825</v>
+        <v>0.185332745576801</v>
       </c>
       <c r="E15">
-        <v>1.43951227922129</v>
+        <v>0.3519848185359109</v>
       </c>
       <c r="F15">
-        <v>1.014703614415858</v>
+        <v>0.6920584373833663</v>
       </c>
       <c r="G15">
-        <v>0.0006741824575984823</v>
+        <v>0.002395720647068797</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.9046327380614301</v>
+        <v>0.4658528109800528</v>
       </c>
       <c r="J15">
-        <v>2.964898421964989</v>
+        <v>0.6489197529148782</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>63.92736671950894</v>
+        <v>17.11020954477289</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.677485082442701</v>
+        <v>2.03355512748962</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,28 +1082,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.07974980906689666</v>
+        <v>0.02718830275519224</v>
       </c>
       <c r="D16">
-        <v>0.3533878942893267</v>
+        <v>0.1820140455711936</v>
       </c>
       <c r="E16">
-        <v>1.260703954884889</v>
+        <v>0.3354207984262416</v>
       </c>
       <c r="F16">
-        <v>0.7945290819576414</v>
+        <v>0.7133508731356315</v>
       </c>
       <c r="G16">
-        <v>0.0006859723646811809</v>
+        <v>0.002399141325684585</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.7688411705503029</v>
+        <v>0.4696135458955339</v>
       </c>
       <c r="J16">
-        <v>2.597246436226527</v>
+        <v>0.6130379788180846</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>57.63285992068938</v>
+        <v>16.0874910489498</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.072250296753083</v>
+        <v>2.062549624854171</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,28 +1129,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.0759172733055351</v>
+        <v>0.02622857310684878</v>
       </c>
       <c r="D17">
-        <v>0.3281582085742087</v>
+        <v>0.1800191100770689</v>
       </c>
       <c r="E17">
-        <v>1.166301249349686</v>
+        <v>0.3253337289338418</v>
       </c>
       <c r="F17">
-        <v>0.6851920290472435</v>
+        <v>0.7269495330124371</v>
       </c>
       <c r="G17">
-        <v>0.0006926434820525632</v>
+        <v>0.002401274917590041</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.6980206447769746</v>
+        <v>0.472202377440432</v>
       </c>
       <c r="J17">
-        <v>2.402587312327597</v>
+        <v>0.5911469288572846</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>54.15542029547521</v>
+        <v>15.45971281459475</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.760757943667102</v>
+        <v>2.081658604362929</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,28 +1176,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.07377455792329357</v>
+        <v>0.02567606765265396</v>
       </c>
       <c r="D18">
-        <v>0.3148201274845945</v>
+        <v>0.1788865227720038</v>
       </c>
       <c r="E18">
-        <v>1.116037487567837</v>
+        <v>0.3195583977890664</v>
       </c>
       <c r="F18">
-        <v>0.6293067320142356</v>
+        <v>0.7349655031113045</v>
       </c>
       <c r="G18">
-        <v>0.0006963334881388871</v>
+        <v>0.002402515077400532</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.6607184624319871</v>
+        <v>0.4737935141737211</v>
       </c>
       <c r="J18">
-        <v>2.298784319894651</v>
+        <v>0.5785985275455801</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>52.2574081999129</v>
+        <v>15.09847496561531</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.597993857888696</v>
+        <v>2.093128592249116</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,28 +1223,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.07305802776665615</v>
+        <v>0.02548891444311607</v>
       </c>
       <c r="D19">
-        <v>0.3104743879669485</v>
+        <v>0.1785055785216514</v>
       </c>
       <c r="E19">
-        <v>1.099606230012739</v>
+        <v>0.3176074387255881</v>
       </c>
       <c r="F19">
-        <v>0.611421361228274</v>
+        <v>0.7377126983304905</v>
       </c>
       <c r="G19">
-        <v>0.0006975616096306409</v>
+        <v>0.002402937208829563</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.6485992104296656</v>
+        <v>0.4743496484775989</v>
       </c>
       <c r="J19">
-        <v>2.264826920662273</v>
+        <v>0.574357029801547</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>51.62969317150703</v>
+        <v>14.97613742573816</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.545321346360055</v>
+        <v>2.097093768175995</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,28 +1270,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.07631845190395836</v>
+        <v>0.02633078925622101</v>
       </c>
       <c r="D20">
-        <v>0.3307144705786129</v>
+        <v>0.1802299330772712</v>
       </c>
       <c r="E20">
-        <v>1.175905863614204</v>
+        <v>0.3264047545366822</v>
       </c>
       <c r="F20">
-        <v>0.696063788363773</v>
+        <v>0.7254817529642921</v>
       </c>
       <c r="G20">
-        <v>0.0006919495761710899</v>
+        <v>0.002401046451881321</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.7051842455496171</v>
+        <v>0.4719161919145449</v>
       </c>
       <c r="J20">
-        <v>2.422409826296246</v>
+        <v>0.5934728038227206</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>54.51435773567658</v>
+        <v>15.52655664789017</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.792122436928679</v>
+        <v>2.079574694085551</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,28 +1317,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.08819289602024583</v>
+        <v>0.0291534307581145</v>
       </c>
       <c r="D21">
-        <v>0.4162684781601627</v>
+        <v>0.1862024170652887</v>
       </c>
       <c r="E21">
-        <v>1.492345678744158</v>
+        <v>0.3562850554305186</v>
       </c>
       <c r="F21">
-        <v>1.082463614727175</v>
+        <v>0.6867292651330246</v>
       </c>
       <c r="G21">
-        <v>0.0006708930348457025</v>
+        <v>0.002394848294481388</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.9449352500322235</v>
+        <v>0.4649701424447272</v>
       </c>
       <c r="J21">
-        <v>3.073269515941718</v>
+        <v>0.6582227246862544</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>65.71867632878144</v>
+        <v>17.37415607949436</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.858925932888326</v>
+        <v>2.026483511939318</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,28 +1364,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.09736801300803677</v>
+        <v>0.0309936875341208</v>
       </c>
       <c r="D22">
-        <v>0.4994364820522179</v>
+        <v>0.1902426449148038</v>
       </c>
       <c r="E22">
-        <v>1.791324982681843</v>
+        <v>0.3760682357732605</v>
       </c>
       <c r="F22">
-        <v>1.482564561312373</v>
+        <v>0.66319231720842</v>
       </c>
       <c r="G22">
-        <v>0.0006537485270000087</v>
+        <v>0.002390911488752711</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.171949074029001</v>
+        <v>0.4613703824908484</v>
       </c>
       <c r="J22">
-        <v>3.684317820621004</v>
+        <v>0.7009606292401713</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>75.32227670797118</v>
+        <v>18.58069721746864</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>4.894512990313729</v>
+        <v>1.996195310636125</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,28 +1411,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.09225543592698671</v>
+        <v>0.03001192381132967</v>
       </c>
       <c r="D23">
-        <v>0.4508677380770933</v>
+        <v>0.1880735399950595</v>
       </c>
       <c r="E23">
-        <v>1.617708416777162</v>
+        <v>0.365485326812319</v>
       </c>
       <c r="F23">
-        <v>1.247190164846565</v>
+        <v>0.6755877380787396</v>
       </c>
       <c r="G23">
-        <v>0.0006634123905550474</v>
+        <v>0.002393002273892644</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.040498553004866</v>
+        <v>0.4632041411190997</v>
       </c>
       <c r="J23">
-        <v>3.329939747214468</v>
+        <v>0.6781101816841897</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>69.85223270203124</v>
+        <v>17.93681085018397</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>4.292155763585953</v>
+        <v>2.011950096546173</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,28 +1458,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.07613689551616432</v>
+        <v>0.02628457965195707</v>
       </c>
       <c r="D24">
-        <v>0.3295552540010647</v>
+        <v>0.1801345754219028</v>
       </c>
       <c r="E24">
-        <v>1.17155147851868</v>
+        <v>0.3259204697484392</v>
       </c>
       <c r="F24">
-        <v>0.6911274875630866</v>
+        <v>0.7261447204997111</v>
       </c>
       <c r="G24">
-        <v>0.0006922637304524853</v>
+        <v>0.002401149699130844</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.7019352060222133</v>
+        <v>0.4720452565817865</v>
       </c>
       <c r="J24">
-        <v>2.413423514276246</v>
+        <v>0.5924211607592724</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>54.35177548861827</v>
+        <v>15.49633755140241</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.777892963841424</v>
+        <v>2.080515324019444</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,28 +1505,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.06122443327196692</v>
+        <v>0.02224522436744536</v>
       </c>
       <c r="D25">
-        <v>0.2459400959847642</v>
+        <v>0.1721364408993225</v>
       </c>
       <c r="E25">
-        <v>0.852244765032637</v>
+        <v>0.2842463651525264</v>
       </c>
       <c r="F25">
-        <v>0.3694314977177342</v>
+        <v>0.7880769571202038</v>
       </c>
       <c r="G25">
-        <v>0.0007175020289027824</v>
+        <v>0.002410434881906519</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.4725261073588953</v>
+        <v>0.4854683230602106</v>
       </c>
       <c r="J25">
-        <v>1.752146585586189</v>
+        <v>0.5016060845674133</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>41.71501902006179</v>
+        <v>12.85770966492498</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.793914776821083</v>
+        <v>2.17270578697125</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_61/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_61/res_line/pl_mw.xlsx
@@ -424,28 +424,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.01925498268004588</v>
+        <v>0.05101779078616886</v>
       </c>
       <c r="D2">
-        <v>0.1667097795782269</v>
+        <v>0.1993181486127185</v>
       </c>
       <c r="E2">
-        <v>0.2543256217524998</v>
+        <v>0.6691314077918804</v>
       </c>
       <c r="F2">
-        <v>0.8397382084503349</v>
+        <v>0.232765160752777</v>
       </c>
       <c r="G2">
-        <v>0.002417707810360123</v>
+        <v>0.0007343676136521657</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.498533902315117</v>
+        <v>0.3541227434559389</v>
       </c>
       <c r="J2">
-        <v>0.4359200581151583</v>
+        <v>1.37072806443436</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>10.90718762146201</v>
+        <v>33.74482140510651</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.255514619255877</v>
+        <v>1.309043452940585</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,28 +471,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.01721866860775378</v>
+        <v>0.04433046733463897</v>
       </c>
       <c r="D3">
-        <v>0.1633099938318594</v>
+        <v>0.1724247203135718</v>
       </c>
       <c r="E3">
-        <v>0.2344801607916764</v>
+        <v>0.5614233498264838</v>
       </c>
       <c r="F3">
-        <v>0.8783816250633762</v>
+        <v>0.1753716753883836</v>
       </c>
       <c r="G3">
-        <v>0.002422913184348985</v>
+        <v>0.0007453741639571172</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.5092947226778008</v>
+        <v>0.2920082499751828</v>
       </c>
       <c r="J3">
-        <v>0.392047190437836</v>
+        <v>1.145512210994241</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>9.579478518004578</v>
+        <v>28.7626103592105</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.320578258041337</v>
+        <v>1.065998680306564</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,28 +518,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.0159636772293652</v>
+        <v>0.04029185418647785</v>
       </c>
       <c r="D4">
-        <v>0.1613565756093749</v>
+        <v>0.1574161056642254</v>
       </c>
       <c r="E4">
-        <v>0.2224950797027887</v>
+        <v>0.5004913584623836</v>
       </c>
       <c r="F4">
-        <v>0.9038516372634078</v>
+        <v>0.1523436736768886</v>
       </c>
       <c r="G4">
-        <v>0.002426247004729312</v>
+        <v>0.000752044986714644</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.5168163124166583</v>
+        <v>0.2602234720420995</v>
       </c>
       <c r="J4">
-        <v>0.3653987628547952</v>
+        <v>1.01777311932301</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>8.761117010601197</v>
+        <v>25.83424748465609</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.364817866070211</v>
+        <v>0.946671577855966</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,28 +565,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.01545111575262581</v>
+        <v>0.03865819959356998</v>
       </c>
       <c r="D5">
-        <v>0.1605938705758092</v>
+        <v>0.1515933244679672</v>
       </c>
       <c r="E5">
-        <v>0.2176596931779571</v>
+        <v>0.4766655486387847</v>
       </c>
       <c r="F5">
-        <v>0.9146618598368406</v>
+        <v>0.1454673224359553</v>
       </c>
       <c r="G5">
-        <v>0.002427640371259938</v>
+        <v>0.0007547546180429364</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.5201075537421147</v>
+        <v>0.2485827239862601</v>
       </c>
       <c r="J5">
-        <v>0.3546085729361721</v>
+        <v>0.967750626701843</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>8.426808567558339</v>
+        <v>24.66567096788015</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.383906797475234</v>
+        <v>0.9042103052437369</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,28 +612,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.01536593745467485</v>
+        <v>0.03838754633450492</v>
       </c>
       <c r="D6">
-        <v>0.1604692264857448</v>
+        <v>0.1506421275605732</v>
       </c>
       <c r="E6">
-        <v>0.2168596713377298</v>
+        <v>0.4727625939663085</v>
       </c>
       <c r="F6">
-        <v>0.9164827086960585</v>
+        <v>0.144463019698474</v>
       </c>
       <c r="G6">
-        <v>0.002427873846409188</v>
+        <v>0.0007552043444576741</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.5206676091192364</v>
+        <v>0.2467218783421927</v>
       </c>
       <c r="J6">
-        <v>0.3528209537351756</v>
+        <v>0.959552117959305</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>8.371246646729389</v>
+        <v>24.47292621002651</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.387140057316799</v>
+        <v>0.8974982848118032</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,28 +659,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.01595676922165268</v>
+        <v>0.04026977857354552</v>
       </c>
       <c r="D7">
-        <v>0.1613461550328879</v>
+        <v>0.157336484961391</v>
       </c>
       <c r="E7">
-        <v>0.2224296732169151</v>
+        <v>0.5001663102539169</v>
       </c>
       <c r="F7">
-        <v>0.9039956921847967</v>
+        <v>0.1522414290104237</v>
       </c>
       <c r="G7">
-        <v>0.002426265654903232</v>
+        <v>0.0007520815503185285</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.5168597886416535</v>
+        <v>0.2600614995397592</v>
       </c>
       <c r="J7">
-        <v>0.3652529666856594</v>
+        <v>1.017090969112445</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>8.756611763382296</v>
+        <v>25.81839663769898</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.365071033906759</v>
+        <v>0.9460755273643713</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.01855385406994259</v>
+        <v>0.04869462899934263</v>
       </c>
       <c r="D8">
-        <v>0.165509465036962</v>
+        <v>0.189673573378343</v>
       </c>
       <c r="E8">
-        <v>0.2474403097269544</v>
+        <v>0.6307022573226178</v>
       </c>
       <c r="F8">
-        <v>0.8526963598991451</v>
+        <v>0.2100540227160081</v>
       </c>
       <c r="G8">
-        <v>0.002419474155459154</v>
+        <v>0.0007381898563665855</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.5020521524759261</v>
+        <v>0.3311913820467183</v>
       </c>
       <c r="J8">
-        <v>0.4207303133547384</v>
+        <v>1.29045315583349</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>10.45002640054662</v>
+        <v>31.99418477191705</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.277047310750845</v>
+        <v>1.218107697124935</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,28 +753,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.02360840491914473</v>
+        <v>0.06607858911576159</v>
       </c>
       <c r="D9">
-        <v>0.1747573082237182</v>
+        <v>0.2708755154494185</v>
       </c>
       <c r="E9">
-        <v>0.298159455519297</v>
+        <v>0.9485960921976186</v>
       </c>
       <c r="F9">
-        <v>0.7662534958051879</v>
+        <v>0.4570366826831034</v>
       </c>
       <c r="G9">
-        <v>0.002407239963772831</v>
+        <v>0.0007093910801400883</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.480441802095676</v>
+        <v>0.5394364617094851</v>
       </c>
       <c r="J9">
-        <v>0.5320007019089132</v>
+        <v>1.952178400415903</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>13.74758621742137</v>
+        <v>45.68482819495961</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.139282446656637</v>
+        <v>2.076071172796475</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,28 +800,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.02729774720435785</v>
+        <v>0.08019697276108673</v>
       </c>
       <c r="D10">
-        <v>0.1822437086135977</v>
+        <v>0.3564543560236757</v>
       </c>
       <c r="E10">
-        <v>0.3365754539032508</v>
+        <v>1.272119122678987</v>
       </c>
       <c r="F10">
-        <v>0.7118257097720431</v>
+        <v>0.8081046832339212</v>
       </c>
       <c r="G10">
-        <v>0.002398899621352146</v>
+        <v>0.0006851875841520786</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.4693320815893358</v>
+        <v>0.7774584768080004</v>
       </c>
       <c r="J10">
-        <v>0.6155418225636993</v>
+        <v>2.620758427808084</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>16.15910508266336</v>
+        <v>58.04588138403557</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.060434551546564</v>
+        <v>3.110358922995744</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,28 +847,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.02897078861992952</v>
+        <v>0.08736427646768163</v>
       </c>
       <c r="D11">
-        <v>0.1858075070338572</v>
+        <v>0.4095907213312131</v>
       </c>
       <c r="E11">
-        <v>0.3543343147341886</v>
+        <v>1.467983215057146</v>
       </c>
       <c r="F11">
-        <v>0.6891369759877435</v>
+        <v>1.051083640317472</v>
       </c>
       <c r="G11">
-        <v>0.002395243255625836</v>
+        <v>0.000672399411047131</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.4653659401093648</v>
+        <v>0.9263483325844533</v>
       </c>
       <c r="J11">
-        <v>0.6540031724083804</v>
+        <v>3.023312293670188</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>17.25449776207904</v>
+        <v>64.89640128606845</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.029668998846148</v>
+        <v>3.775151268057698</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,28 +894,28 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.0296035612972787</v>
+        <v>0.09028545794102172</v>
       </c>
       <c r="D12">
-        <v>0.1871804608171317</v>
+        <v>0.4336895952981621</v>
       </c>
       <c r="E12">
-        <v>0.3611026623215992</v>
+        <v>1.555646843860288</v>
       </c>
       <c r="F12">
-        <v>0.680851638294854</v>
+        <v>1.164998896626464</v>
       </c>
       <c r="G12">
-        <v>0.002393878253926895</v>
+        <v>0.0006670602154543737</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.4640249301223776</v>
+        <v>0.99322116161742</v>
       </c>
       <c r="J12">
-        <v>0.6686392203418166</v>
+        <v>3.202956396608414</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>17.66912689178804</v>
+        <v>67.82599646108639</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.018773600850921</v>
+        <v>4.077312308117882</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.02946731690455806</v>
+        <v>0.08964401567885716</v>
       </c>
       <c r="D13">
-        <v>0.1868837177361229</v>
+        <v>0.4282620507366062</v>
       </c>
       <c r="E13">
-        <v>0.3596429995775452</v>
+        <v>1.535964814706006</v>
       </c>
       <c r="F13">
-        <v>0.6826222676281617</v>
+        <v>1.139188381879116</v>
       </c>
       <c r="G13">
-        <v>0.002394171363972672</v>
+        <v>0.0006682395795567579</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.4643065131939039</v>
+        <v>0.9782117351025974</v>
       </c>
       <c r="J13">
-        <v>0.6654838075427847</v>
+        <v>3.162651392553727</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>17.57983572458591</v>
+        <v>67.1752347042484</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.021086207079492</v>
+        <v>4.009313434657884</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,28 +988,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.02902286275158872</v>
+        <v>0.08759941357165246</v>
       </c>
       <c r="D14">
-        <v>0.1859199873445192</v>
+        <v>0.4114733706035594</v>
       </c>
       <c r="E14">
-        <v>0.3548902636263875</v>
+        <v>1.474857248176988</v>
       </c>
       <c r="F14">
-        <v>0.6884491455959534</v>
+        <v>1.059914901812185</v>
       </c>
       <c r="G14">
-        <v>0.002395130564742782</v>
+        <v>0.0006719725833364905</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.4652523641747024</v>
+        <v>0.931592496121624</v>
       </c>
       <c r="J14">
-        <v>0.6552058204832178</v>
+        <v>3.037410606802382</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>17.28861263483253</v>
+        <v>65.12905404944098</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.028757377249121</v>
+        <v>3.798771043371175</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,28 +1035,28 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.02875052085343555</v>
+        <v>0.08637904372201888</v>
       </c>
       <c r="D15">
-        <v>0.185332745576801</v>
+        <v>0.4018059263490272</v>
       </c>
       <c r="E15">
-        <v>0.3519848185359109</v>
+        <v>1.439512279221304</v>
       </c>
       <c r="F15">
-        <v>0.6920584373833663</v>
+        <v>1.014703614415865</v>
       </c>
       <c r="G15">
-        <v>0.002395720647068797</v>
+        <v>0.0006741824575987719</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.4658528109800528</v>
+        <v>0.9046327380614301</v>
       </c>
       <c r="J15">
-        <v>0.6489197529148782</v>
+        <v>2.964898421964847</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>17.11020954477289</v>
+        <v>63.92736671950888</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.03355512748962</v>
+        <v>3.677485082442701</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,28 +1082,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.02718830275519224</v>
+        <v>0.07974980906688245</v>
       </c>
       <c r="D16">
-        <v>0.1820140455711936</v>
+        <v>0.353387894289412</v>
       </c>
       <c r="E16">
-        <v>0.3354207984262416</v>
+        <v>1.260703954884917</v>
       </c>
       <c r="F16">
-        <v>0.7133508731356315</v>
+        <v>0.7945290819576414</v>
       </c>
       <c r="G16">
-        <v>0.002399141325684585</v>
+        <v>0.0006859723646804348</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.4696135458955339</v>
+        <v>0.7688411705503029</v>
       </c>
       <c r="J16">
-        <v>0.6130379788180846</v>
+        <v>2.597246436226527</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>16.0874910489498</v>
+        <v>57.63285992068955</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.062549624854171</v>
+        <v>3.072250296753054</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,28 +1129,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.02622857310684878</v>
+        <v>0.07591727330554221</v>
       </c>
       <c r="D17">
-        <v>0.1800191100770689</v>
+        <v>0.3281582085742087</v>
       </c>
       <c r="E17">
-        <v>0.3253337289338418</v>
+        <v>1.166301249349672</v>
       </c>
       <c r="F17">
-        <v>0.7269495330124371</v>
+        <v>0.6851920290472293</v>
       </c>
       <c r="G17">
-        <v>0.002401274917590041</v>
+        <v>0.0006926434820287797</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.472202377440432</v>
+        <v>0.6980206447769746</v>
       </c>
       <c r="J17">
-        <v>0.5911469288572846</v>
+        <v>2.402587312327626</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>15.45971281459475</v>
+        <v>54.15542029547493</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.081658604362929</v>
+        <v>2.76075794366713</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,28 +1176,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.02567606765265396</v>
+        <v>0.07377455792328647</v>
       </c>
       <c r="D18">
-        <v>0.1788865227720038</v>
+        <v>0.314820127484623</v>
       </c>
       <c r="E18">
-        <v>0.3195583977890664</v>
+        <v>1.116037487567795</v>
       </c>
       <c r="F18">
-        <v>0.7349655031113045</v>
+        <v>0.6293067320142356</v>
       </c>
       <c r="G18">
-        <v>0.002402515077400532</v>
+        <v>0.0006963334881106051</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.4737935141737211</v>
+        <v>0.6607184624319942</v>
       </c>
       <c r="J18">
-        <v>0.5785985275455801</v>
+        <v>2.298784319894622</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>15.09847496561531</v>
+        <v>52.25740819991273</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.093128592249116</v>
+        <v>2.597993857888753</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,28 +1223,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.02548891444311607</v>
+        <v>0.0730580277664501</v>
       </c>
       <c r="D19">
-        <v>0.1785055785216514</v>
+        <v>0.3104743879669485</v>
       </c>
       <c r="E19">
-        <v>0.3176074387255881</v>
+        <v>1.099606230012739</v>
       </c>
       <c r="F19">
-        <v>0.7377126983304905</v>
+        <v>0.6114213612282597</v>
       </c>
       <c r="G19">
-        <v>0.002402937208829563</v>
+        <v>0.0006975616096821255</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.4743496484775989</v>
+        <v>0.6485992104296656</v>
       </c>
       <c r="J19">
-        <v>0.574357029801547</v>
+        <v>2.264826920662273</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>14.97613742573816</v>
+        <v>51.62969317150697</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.097093768175995</v>
+        <v>2.545321346360083</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,28 +1270,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.02633078925622101</v>
+        <v>0.07631845190405784</v>
       </c>
       <c r="D20">
-        <v>0.1802299330772712</v>
+        <v>0.3307144705788119</v>
       </c>
       <c r="E20">
-        <v>0.3264047545366822</v>
+        <v>1.175905863614162</v>
       </c>
       <c r="F20">
-        <v>0.7254817529642921</v>
+        <v>0.696063788363773</v>
       </c>
       <c r="G20">
-        <v>0.002401046451881321</v>
+        <v>0.0006919495761723125</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.4719161919145449</v>
+        <v>0.7051842455496171</v>
       </c>
       <c r="J20">
-        <v>0.5934728038227206</v>
+        <v>2.422409826296217</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>15.52655664789017</v>
+        <v>54.51435773567647</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.079574694085551</v>
+        <v>2.792122436928736</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,28 +1317,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.0291534307581145</v>
+        <v>0.08819289602023161</v>
       </c>
       <c r="D21">
-        <v>0.1862024170652887</v>
+        <v>0.4162684781603332</v>
       </c>
       <c r="E21">
-        <v>0.3562850554305186</v>
+        <v>1.492345678744186</v>
       </c>
       <c r="F21">
-        <v>0.6867292651330246</v>
+        <v>1.082463614727189</v>
       </c>
       <c r="G21">
-        <v>0.002394848294481388</v>
+        <v>0.000670893034845188</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.4649701424447272</v>
+        <v>0.9449352500322163</v>
       </c>
       <c r="J21">
-        <v>0.6582227246862544</v>
+        <v>3.073269515941689</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>17.37415607949436</v>
+        <v>65.71867632878133</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.026483511939318</v>
+        <v>3.858925932888326</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,28 +1364,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.0309936875341208</v>
+        <v>0.09736801300805098</v>
       </c>
       <c r="D22">
-        <v>0.1902426449148038</v>
+        <v>0.4994364820523032</v>
       </c>
       <c r="E22">
-        <v>0.3760682357732605</v>
+        <v>1.791324982681843</v>
       </c>
       <c r="F22">
-        <v>0.66319231720842</v>
+        <v>1.482564561312387</v>
       </c>
       <c r="G22">
-        <v>0.002390911488752711</v>
+        <v>0.0006537485269729938</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.4613703824908484</v>
+        <v>1.171949074029008</v>
       </c>
       <c r="J22">
-        <v>0.7009606292401713</v>
+        <v>3.684317820621118</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>18.58069721746864</v>
+        <v>75.32227670797141</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.996195310636125</v>
+        <v>4.894512990313729</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,28 +1411,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.03001192381132967</v>
+        <v>0.09225543592721408</v>
       </c>
       <c r="D23">
-        <v>0.1880735399950595</v>
+        <v>0.4508677380769655</v>
       </c>
       <c r="E23">
-        <v>0.365485326812319</v>
+        <v>1.617708416777191</v>
       </c>
       <c r="F23">
-        <v>0.6755877380787396</v>
+        <v>1.247190164846572</v>
       </c>
       <c r="G23">
-        <v>0.002393002273892644</v>
+        <v>0.0006634123905015029</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.4632041411190997</v>
+        <v>1.040498553004873</v>
       </c>
       <c r="J23">
-        <v>0.6781101816841897</v>
+        <v>3.329939747214382</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>17.93681085018397</v>
+        <v>69.85223270203102</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.011950096546173</v>
+        <v>4.29215576358601</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,28 +1458,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.02628457965195707</v>
+        <v>0.07613689551616432</v>
       </c>
       <c r="D24">
-        <v>0.1801345754219028</v>
+        <v>0.3295552540013205</v>
       </c>
       <c r="E24">
-        <v>0.3259204697484392</v>
+        <v>1.171551478518637</v>
       </c>
       <c r="F24">
-        <v>0.7261447204997111</v>
+        <v>0.6911274875630866</v>
       </c>
       <c r="G24">
-        <v>0.002401149699130844</v>
+        <v>0.0006922637304776075</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.4720452565817865</v>
+        <v>0.7019352060222133</v>
       </c>
       <c r="J24">
-        <v>0.5924211607592724</v>
+        <v>2.413423514276275</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>15.49633755140241</v>
+        <v>54.35177548861856</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.080515324019444</v>
+        <v>2.777892963841424</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,28 +1505,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.02224522436744536</v>
+        <v>0.06122443327173954</v>
       </c>
       <c r="D25">
-        <v>0.1721364408993225</v>
+        <v>0.2459400959848068</v>
       </c>
       <c r="E25">
-        <v>0.2842463651525264</v>
+        <v>0.852244765032637</v>
       </c>
       <c r="F25">
-        <v>0.7880769571202038</v>
+        <v>0.3694314977177484</v>
       </c>
       <c r="G25">
-        <v>0.002410434881906519</v>
+        <v>0.0007175020289752153</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.4854683230602106</v>
+        <v>0.4725261073588882</v>
       </c>
       <c r="J25">
-        <v>0.5016060845674133</v>
+        <v>1.752146585586132</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>12.85770966492498</v>
+        <v>41.71501902006167</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.17270578697125</v>
+        <v>1.793914776821055</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_61/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_61/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,46 +430,52 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.05101779078616886</v>
+        <v>0.06181588235213553</v>
       </c>
       <c r="D2">
-        <v>0.1993181486127185</v>
+        <v>0.006444911672627285</v>
       </c>
       <c r="E2">
-        <v>0.6691314077918804</v>
+        <v>1.464358828671038</v>
       </c>
       <c r="F2">
-        <v>0.232765160752777</v>
+        <v>1.112076911831579</v>
       </c>
       <c r="G2">
-        <v>0.0007343676136521657</v>
+        <v>1.083988655820633</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.02417382395114398</v>
       </c>
       <c r="I2">
-        <v>0.3541227434559389</v>
+        <v>0.0565047175400859</v>
       </c>
       <c r="J2">
-        <v>1.37072806443436</v>
+        <v>0.6008400574378356</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.8527539415558749</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>33.74482140510651</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.309043452940585</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>3.507883495005444</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -471,46 +483,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.04433046733463897</v>
+        <v>0.05707837909311664</v>
       </c>
       <c r="D3">
-        <v>0.1724247203135718</v>
+        <v>0.005754067376869898</v>
       </c>
       <c r="E3">
-        <v>0.5614233498264838</v>
+        <v>1.28213769187154</v>
       </c>
       <c r="F3">
-        <v>0.1753716753883836</v>
+        <v>0.9788459119366024</v>
       </c>
       <c r="G3">
-        <v>0.0007453741639571172</v>
+        <v>0.9494211360583762</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.01914266148887034</v>
       </c>
       <c r="I3">
-        <v>0.2920082499751828</v>
+        <v>0.04825746789152374</v>
       </c>
       <c r="J3">
-        <v>1.145512210994241</v>
+        <v>0.5394395948704869</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.7549348421572617</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>28.7626103592105</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.065998680306564</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>3.093802162419877</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -518,46 +536,52 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.04029185418647785</v>
+        <v>0.05409176426073259</v>
       </c>
       <c r="D4">
-        <v>0.1574161056642254</v>
+        <v>0.005331563223350599</v>
       </c>
       <c r="E4">
-        <v>0.5004913584623836</v>
+        <v>1.170508351064996</v>
       </c>
       <c r="F4">
-        <v>0.1523436736768886</v>
+        <v>0.8973375972717008</v>
       </c>
       <c r="G4">
-        <v>0.000752044986714644</v>
+        <v>0.8669605940337561</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.01625074884238598</v>
       </c>
       <c r="I4">
-        <v>0.2602234720420995</v>
+        <v>0.04337012381927119</v>
       </c>
       <c r="J4">
-        <v>1.01777311932301</v>
+        <v>0.501881117848157</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.6948225501188574</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>25.83424748465609</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.946671577855966</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>2.840189077865972</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -565,46 +589,52 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.03865819959356998</v>
+        <v>0.0526597051720934</v>
       </c>
       <c r="D5">
-        <v>0.1515933244679672</v>
+        <v>0.005170598857731079</v>
       </c>
       <c r="E5">
-        <v>0.4766655486387847</v>
+        <v>1.125022408482906</v>
       </c>
       <c r="F5">
-        <v>0.1454673224359553</v>
+        <v>0.8634409199552664</v>
       </c>
       <c r="G5">
-        <v>0.0007547546180429364</v>
+        <v>0.8325286546352544</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.01511303317215551</v>
       </c>
       <c r="I5">
-        <v>0.2485827239862601</v>
+        <v>0.04143159212359837</v>
       </c>
       <c r="J5">
-        <v>0.967750626701843</v>
+        <v>0.4861787812983351</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.6693270982656259</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>24.66567096788015</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.9042103052437369</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>2.734249308919431</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -612,46 +642,52 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.03838754633450492</v>
+        <v>0.05218451279965208</v>
       </c>
       <c r="D6">
-        <v>0.1506421275605732</v>
+        <v>0.005157308334066357</v>
       </c>
       <c r="E6">
-        <v>0.4727625939663085</v>
+        <v>1.117425869550175</v>
       </c>
       <c r="F6">
-        <v>0.144463019698474</v>
+        <v>0.8569098609017374</v>
       </c>
       <c r="G6">
-        <v>0.0007552043444576741</v>
+        <v>0.8257663945573483</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.0149217689554495</v>
       </c>
       <c r="I6">
-        <v>0.2467218783421927</v>
+        <v>0.04113713202391889</v>
       </c>
       <c r="J6">
-        <v>0.959552117959305</v>
+        <v>0.4830520654156771</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.663895776469424</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>24.47292621002651</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.8974982848118032</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>2.713355519076003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -659,46 +695,52 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.04026977857354552</v>
+        <v>0.05342250727018438</v>
       </c>
       <c r="D7">
-        <v>0.157336484961391</v>
+        <v>0.005366084346553279</v>
       </c>
       <c r="E7">
-        <v>0.5001663102539169</v>
+        <v>1.169769179520415</v>
       </c>
       <c r="F7">
-        <v>0.1522414290104237</v>
+        <v>0.8943980188919483</v>
       </c>
       <c r="G7">
-        <v>0.0007520815503185285</v>
+        <v>0.863628621391527</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.01622126196530116</v>
       </c>
       <c r="I7">
-        <v>0.2600614995397592</v>
+        <v>0.0433981826552694</v>
       </c>
       <c r="J7">
-        <v>1.017090969112445</v>
+        <v>0.500242246047307</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.6911998072706425</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>25.81839663769898</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.9460755273643713</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>2.829693361979338</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -706,46 +748,52 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.04869462899934263</v>
+        <v>0.05932738095831169</v>
       </c>
       <c r="D8">
-        <v>0.189673573378343</v>
+        <v>0.006255402388553932</v>
       </c>
       <c r="E8">
-        <v>0.6307022573226178</v>
+        <v>1.401288560139548</v>
       </c>
       <c r="F8">
-        <v>0.2100540227160081</v>
+        <v>1.062746263797834</v>
       </c>
       <c r="G8">
-        <v>0.0007381898563665855</v>
+        <v>1.033707859262137</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.02237416939278503</v>
       </c>
       <c r="I8">
-        <v>0.3311913820467183</v>
+        <v>0.05366676441096718</v>
       </c>
       <c r="J8">
-        <v>1.29045315583349</v>
+        <v>0.5777291836173077</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.8146463874263858</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>31.99418477191705</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.218107697124935</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>3.352819727312976</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -753,46 +801,52 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.06607858911576159</v>
+        <v>0.07150780676395385</v>
       </c>
       <c r="D9">
-        <v>0.2708755154494185</v>
+        <v>0.007951040026378919</v>
       </c>
       <c r="E9">
-        <v>0.9485960921976186</v>
+        <v>1.858669907359101</v>
       </c>
       <c r="F9">
-        <v>0.4570366826831034</v>
+        <v>1.400500160406096</v>
       </c>
       <c r="G9">
-        <v>0.0007093910801400883</v>
+        <v>1.374483174233973</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.03626200532750889</v>
       </c>
       <c r="I9">
-        <v>0.5394364617094851</v>
+        <v>0.07543769217708629</v>
       </c>
       <c r="J9">
-        <v>1.952178400415903</v>
+        <v>0.7337262190307285</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.062681733690624</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>45.68482819495961</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.076071172796475</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>4.402424297038692</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -800,46 +854,52 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.08019697276108673</v>
+        <v>0.07995809148771116</v>
       </c>
       <c r="D10">
-        <v>0.3564543560236757</v>
+        <v>0.009472034754990588</v>
       </c>
       <c r="E10">
-        <v>1.272119122678987</v>
+        <v>2.092389768855952</v>
       </c>
       <c r="F10">
-        <v>0.8081046832339212</v>
+        <v>1.636590575698335</v>
       </c>
       <c r="G10">
-        <v>0.0006851875841520786</v>
+        <v>1.609705390774394</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.04681263079340914</v>
       </c>
       <c r="I10">
-        <v>0.7774584768080004</v>
+        <v>0.09236367039332638</v>
       </c>
       <c r="J10">
-        <v>2.620758427808084</v>
+        <v>0.8412195350568936</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.233147628341456</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>58.04588138403557</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.110358922995744</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>5.126507160520703</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -847,46 +907,52 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.08736427646768163</v>
+        <v>0.084151403823995</v>
       </c>
       <c r="D11">
-        <v>0.4095907213312131</v>
+        <v>0.01272457887783318</v>
       </c>
       <c r="E11">
-        <v>1.467983215057146</v>
+        <v>1.381174063114898</v>
       </c>
       <c r="F11">
-        <v>1.051083640317472</v>
+        <v>1.620523327674434</v>
       </c>
       <c r="G11">
-        <v>0.000672399411047131</v>
+        <v>1.574048527770913</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.06092380588358282</v>
       </c>
       <c r="I11">
-        <v>0.9263483325844533</v>
+        <v>0.09620916764369802</v>
       </c>
       <c r="J11">
-        <v>3.023312293670188</v>
+        <v>0.8205994500224278</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.212510940334084</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>64.89640128606845</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.775151268057698</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>5.007897920880055</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -894,46 +960,52 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.09028545794102172</v>
+        <v>0.08765679295626683</v>
       </c>
       <c r="D12">
-        <v>0.4336895952981621</v>
+        <v>0.01559159484515504</v>
       </c>
       <c r="E12">
-        <v>1.555646843860288</v>
+        <v>0.866743007857707</v>
       </c>
       <c r="F12">
-        <v>1.164998896626464</v>
+        <v>1.560917132010474</v>
       </c>
       <c r="G12">
-        <v>0.0006670602154543737</v>
+        <v>1.499569700617513</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.09555257587177124</v>
       </c>
       <c r="I12">
-        <v>0.99322116161742</v>
+        <v>0.09604537653790768</v>
       </c>
       <c r="J12">
-        <v>3.202956396608414</v>
+        <v>0.7827454963713478</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.164443721111553</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>67.82599646108639</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>4.077312308117882</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>4.770821349218522</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -941,46 +1013,52 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.08964401567885716</v>
+        <v>0.08978628147674783</v>
       </c>
       <c r="D13">
-        <v>0.4282620507366062</v>
+        <v>0.01832807070667997</v>
       </c>
       <c r="E13">
-        <v>1.535964814706006</v>
+        <v>0.473948645836856</v>
       </c>
       <c r="F13">
-        <v>1.139188381879116</v>
+        <v>1.460814777942247</v>
       </c>
       <c r="G13">
-        <v>0.0006682395795567579</v>
+        <v>1.386929829150915</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1471807579784468</v>
       </c>
       <c r="I13">
-        <v>0.9782117351025974</v>
+        <v>0.09288729349799763</v>
       </c>
       <c r="J13">
-        <v>3.162651392553727</v>
+        <v>0.7274141662699094</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.08761609321428</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>67.1752347042484</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>4.009313434657884</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>4.416192789497586</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -988,46 +1066,52 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.08759941357165246</v>
+        <v>0.09047753601543462</v>
       </c>
       <c r="D14">
-        <v>0.4114733706035594</v>
+        <v>0.0202418860002247</v>
       </c>
       <c r="E14">
-        <v>1.474857248176988</v>
+        <v>0.2728590980779018</v>
       </c>
       <c r="F14">
-        <v>1.059914901812185</v>
+        <v>1.372492968955129</v>
       </c>
       <c r="G14">
-        <v>0.0006719725833364905</v>
+        <v>1.290999964352551</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1937629918803907</v>
       </c>
       <c r="I14">
-        <v>0.931592496121624</v>
+        <v>0.08945997478792655</v>
       </c>
       <c r="J14">
-        <v>3.037410606802382</v>
+        <v>0.6807952798152996</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.020485211530072</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>65.12905404944098</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.798771043371175</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>4.115200147283986</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1035,46 +1119,52 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.08637904372201888</v>
+        <v>0.08992253589994448</v>
       </c>
       <c r="D15">
-        <v>0.4018059263490272</v>
+        <v>0.02064247264667074</v>
       </c>
       <c r="E15">
-        <v>1.439512279221304</v>
+        <v>0.2328781390494221</v>
       </c>
       <c r="F15">
-        <v>1.014703614415865</v>
+        <v>1.341648080386108</v>
       </c>
       <c r="G15">
-        <v>0.0006741824575987719</v>
+        <v>1.258606654007053</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.2053413987984385</v>
       </c>
       <c r="I15">
-        <v>0.9046327380614301</v>
+        <v>0.08800222139093705</v>
       </c>
       <c r="J15">
-        <v>2.964898421964847</v>
+        <v>0.6653110686510217</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.9969477700703209</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>63.92736671950888</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.677485082442701</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>4.0140885191081</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1082,46 +1172,52 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.07974980906688245</v>
+        <v>0.08539196058909226</v>
       </c>
       <c r="D16">
-        <v>0.353387894289412</v>
+        <v>0.01933896492338505</v>
       </c>
       <c r="E16">
-        <v>1.260703954884917</v>
+        <v>0.2277060750688626</v>
       </c>
       <c r="F16">
-        <v>0.7945290819576414</v>
+        <v>1.261518257990645</v>
       </c>
       <c r="G16">
-        <v>0.0006859723646804348</v>
+        <v>1.181882717583562</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.189239106732785</v>
       </c>
       <c r="I16">
-        <v>0.7688411705503029</v>
+        <v>0.08153447467261454</v>
       </c>
       <c r="J16">
-        <v>2.597246436226527</v>
+        <v>0.6308761658278854</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.9394343207735147</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>57.63285992068955</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.072250296753054</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>3.779183616130297</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1129,46 +1225,52 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.07591727330554221</v>
+        <v>0.08149667158595264</v>
       </c>
       <c r="D17">
-        <v>0.3281582085742087</v>
+        <v>0.0173043384177376</v>
       </c>
       <c r="E17">
-        <v>1.166301249349672</v>
+        <v>0.3165325497433713</v>
       </c>
       <c r="F17">
-        <v>0.6851920290472293</v>
+        <v>1.246524805171703</v>
       </c>
       <c r="G17">
-        <v>0.0006926434820287797</v>
+        <v>1.173315032796324</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1502430821054048</v>
       </c>
       <c r="I17">
-        <v>0.6980206447769746</v>
+        <v>0.07837146595187416</v>
       </c>
       <c r="J17">
-        <v>2.402587312327626</v>
+        <v>0.6289680838805509</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.9305170396453093</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>54.15542029547493</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.76075794366713</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>3.756914314636049</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1176,46 +1278,52 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.07377455792328647</v>
+        <v>0.07864895891406576</v>
       </c>
       <c r="D18">
-        <v>0.314820127484623</v>
+        <v>0.0145616960727466</v>
       </c>
       <c r="E18">
-        <v>1.116037487567795</v>
+        <v>0.5609505938124641</v>
       </c>
       <c r="F18">
-        <v>0.6293067320142356</v>
+        <v>1.287963538213987</v>
       </c>
       <c r="G18">
-        <v>0.0006963334881106051</v>
+        <v>1.225257278609888</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.09854612112691541</v>
       </c>
       <c r="I18">
-        <v>0.6607184624319942</v>
+        <v>0.07764579696545404</v>
       </c>
       <c r="J18">
-        <v>2.298784319894622</v>
+        <v>0.6560678672090887</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.9652082705737541</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>52.25740819991273</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.597993857888753</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>3.923692986519029</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1223,46 +1331,52 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.0730580277664501</v>
+        <v>0.07581091369409876</v>
       </c>
       <c r="D19">
-        <v>0.3104743879669485</v>
+        <v>0.01190549085557535</v>
       </c>
       <c r="E19">
-        <v>1.099606230012739</v>
+        <v>1.012642525252971</v>
       </c>
       <c r="F19">
-        <v>0.6114213612282597</v>
+        <v>1.368491202284162</v>
       </c>
       <c r="G19">
-        <v>0.0006975616096821255</v>
+        <v>1.318970649120018</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.05730105155353016</v>
       </c>
       <c r="I19">
-        <v>0.6485992104296656</v>
+        <v>0.0794119463108931</v>
       </c>
       <c r="J19">
-        <v>2.264826920662273</v>
+        <v>0.70270018501202</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.027577141586178</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>51.62969317150697</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.545321346360083</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>4.219965109425857</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1270,46 +1384,52 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.07631845190405784</v>
+        <v>0.07570528322096237</v>
       </c>
       <c r="D20">
-        <v>0.3307144705788119</v>
+        <v>0.009204043376145776</v>
       </c>
       <c r="E20">
-        <v>1.175905863614162</v>
+        <v>2.025986799777883</v>
       </c>
       <c r="F20">
-        <v>0.696063788363773</v>
+        <v>1.565802926353754</v>
       </c>
       <c r="G20">
-        <v>0.0006919495761723125</v>
+        <v>1.537867739669878</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.04381470660866782</v>
       </c>
       <c r="I20">
-        <v>0.7051842455496171</v>
+        <v>0.08797991359465662</v>
       </c>
       <c r="J20">
-        <v>2.422409826296217</v>
+        <v>0.8079985536343202</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.177368041835265</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>54.51435773567647</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.792122436928736</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>4.904570173120248</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1317,46 +1437,52 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.08819289602023161</v>
+        <v>0.08235705775387459</v>
       </c>
       <c r="D21">
-        <v>0.4162684781603332</v>
+        <v>0.009983718662057939</v>
       </c>
       <c r="E21">
-        <v>1.492345678744186</v>
+        <v>2.370499516625699</v>
       </c>
       <c r="F21">
-        <v>1.082463614727189</v>
+        <v>1.771281479788797</v>
       </c>
       <c r="G21">
-        <v>0.000670893034845188</v>
+        <v>1.746076348097716</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.05413038889431832</v>
       </c>
       <c r="I21">
-        <v>0.9449352500322163</v>
+        <v>0.1022885696664924</v>
       </c>
       <c r="J21">
-        <v>3.073269515941689</v>
+        <v>0.9040425561404106</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.327286796933137</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>65.71867632878133</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.858925932888326</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>5.54731642541509</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1364,46 +1490,52 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.09736801300805098</v>
+        <v>0.08757884558449547</v>
       </c>
       <c r="D22">
-        <v>0.4994364820523032</v>
+        <v>0.01057031496256222</v>
       </c>
       <c r="E22">
-        <v>1.791324982681843</v>
+        <v>2.543284229145613</v>
       </c>
       <c r="F22">
-        <v>1.482564561312387</v>
+        <v>1.902888159021913</v>
       </c>
       <c r="G22">
-        <v>0.0006537485269729938</v>
+        <v>1.87874565451969</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.06072640051337164</v>
       </c>
       <c r="I22">
-        <v>1.171949074029008</v>
+        <v>0.1117087110366333</v>
       </c>
       <c r="J22">
-        <v>3.684317820621118</v>
+        <v>0.965222808316696</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.424603971878682</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>75.32227670797141</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>4.894512990313729</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>5.956825053853038</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1411,46 +1543,52 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.09225543592721408</v>
+        <v>0.0855686905613382</v>
       </c>
       <c r="D23">
-        <v>0.4508677380769655</v>
+        <v>0.01021046354216359</v>
       </c>
       <c r="E23">
-        <v>1.617708416777191</v>
+        <v>2.45112857475165</v>
       </c>
       <c r="F23">
-        <v>1.247190164846572</v>
+        <v>1.835613354265647</v>
       </c>
       <c r="G23">
-        <v>0.0006634123905015029</v>
+        <v>1.811393575130154</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.0571971795376518</v>
       </c>
       <c r="I23">
-        <v>1.040498553004873</v>
+        <v>0.106570326404225</v>
       </c>
       <c r="J23">
-        <v>3.329939747214382</v>
+        <v>0.9342754307453447</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.376651618281144</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>69.85223270203102</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>4.29215576358601</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>5.749159976962972</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1458,46 +1596,52 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.07613689551616432</v>
+        <v>0.07668380781081652</v>
       </c>
       <c r="D24">
-        <v>0.3295552540013205</v>
+        <v>0.008930085994226289</v>
       </c>
       <c r="E24">
-        <v>1.171551478518637</v>
+        <v>2.104268661667462</v>
       </c>
       <c r="F24">
-        <v>0.6911274875630866</v>
+        <v>1.578015779086073</v>
       </c>
       <c r="G24">
-        <v>0.0006922637304776075</v>
+        <v>1.552479128074452</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.04453944168020918</v>
       </c>
       <c r="I24">
-        <v>0.7019352060222133</v>
+        <v>0.0880066746796766</v>
       </c>
       <c r="J24">
-        <v>2.413423514276275</v>
+        <v>0.8152328716831221</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.189490014625775</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>54.35177548861856</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.777892963841424</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>4.950687592157465</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1505,43 +1649,49 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.06122443327173954</v>
+        <v>0.06708236170045367</v>
       </c>
       <c r="D25">
-        <v>0.2459400959848068</v>
+        <v>0.007558406983219967</v>
       </c>
       <c r="E25">
-        <v>0.852244765032637</v>
+        <v>1.734183599524428</v>
       </c>
       <c r="F25">
-        <v>0.3694314977177484</v>
+        <v>1.304079724351126</v>
       </c>
       <c r="G25">
-        <v>0.0007175020289752153</v>
+        <v>1.276648154575696</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.03224630971919451</v>
       </c>
       <c r="I25">
-        <v>0.4725261073588882</v>
+        <v>0.06941397604037025</v>
       </c>
       <c r="J25">
-        <v>1.752146585586132</v>
+        <v>0.6886830551774779</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.9894555656663897</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>41.71501902006167</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.793914776821055</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>4.100568812889151</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_61/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_61/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,37 +436,37 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.06181588235213553</v>
+        <v>0.04954906114461988</v>
       </c>
       <c r="D2">
-        <v>0.006444911672627285</v>
+        <v>0.01004016628101567</v>
       </c>
       <c r="E2">
-        <v>1.464358828671038</v>
+        <v>1.444529836328115</v>
       </c>
       <c r="F2">
-        <v>1.112076911831579</v>
+        <v>0.9859277440716312</v>
       </c>
       <c r="G2">
-        <v>1.083988655820633</v>
+        <v>0.9256646499583496</v>
       </c>
       <c r="H2">
-        <v>0.02417382395114398</v>
+        <v>0.02173586852070875</v>
       </c>
       <c r="I2">
-        <v>0.0565047175400859</v>
+        <v>0.04528933797212931</v>
       </c>
       <c r="J2">
-        <v>0.6008400574378356</v>
+        <v>0.5871479188798929</v>
       </c>
       <c r="K2">
-        <v>0.8527539415558749</v>
+        <v>0.6935347263249909</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.3385941680235476</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.2225229715988277</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -472,10 +478,16 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>3.507883495005444</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>3.055475156756927</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,37 +495,37 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.05707837909311664</v>
+        <v>0.04594835951517107</v>
       </c>
       <c r="D3">
-        <v>0.005754067376869898</v>
+        <v>0.008780010058279331</v>
       </c>
       <c r="E3">
-        <v>1.28213769187154</v>
+        <v>1.265424018781573</v>
       </c>
       <c r="F3">
-        <v>0.9788459119366024</v>
+        <v>0.8737724411806909</v>
       </c>
       <c r="G3">
-        <v>0.9494211360583762</v>
+        <v>0.8136962294232575</v>
       </c>
       <c r="H3">
-        <v>0.01914266148887034</v>
+        <v>0.01721243068337608</v>
       </c>
       <c r="I3">
-        <v>0.04825746789152374</v>
+        <v>0.03906476266754444</v>
       </c>
       <c r="J3">
-        <v>0.5394395948704869</v>
+        <v>0.5362985677128052</v>
       </c>
       <c r="K3">
-        <v>0.7549348421572617</v>
+        <v>0.6216141521768535</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.3246856465622656</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.1819709019046272</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -525,10 +537,16 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3.093802162419877</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>2.716886669629162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,37 +554,37 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.05409176426073259</v>
+        <v>0.04376454269844698</v>
       </c>
       <c r="D4">
-        <v>0.005331563223350599</v>
+        <v>0.008016615058529908</v>
       </c>
       <c r="E4">
-        <v>1.170508351064996</v>
+        <v>1.155625601686978</v>
       </c>
       <c r="F4">
-        <v>0.8973375972717008</v>
+        <v>0.804956096308814</v>
       </c>
       <c r="G4">
-        <v>0.8669605940337561</v>
+        <v>0.7449653623435353</v>
       </c>
       <c r="H4">
-        <v>0.01625074884238598</v>
+        <v>0.01460997841776102</v>
       </c>
       <c r="I4">
-        <v>0.04337012381927119</v>
+        <v>0.03536489897577288</v>
       </c>
       <c r="J4">
-        <v>0.501881117848157</v>
+        <v>0.5049329685141544</v>
       </c>
       <c r="K4">
-        <v>0.6948225501188574</v>
+        <v>0.5771667384567181</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.315686380081587</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.1578248110464244</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -578,10 +596,16 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2.840189077865972</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>2.508779617126663</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,37 +613,37 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.0526597051720934</v>
+        <v>0.0428644004090426</v>
       </c>
       <c r="D5">
-        <v>0.005170598857731079</v>
+        <v>0.007724498790446788</v>
       </c>
       <c r="E5">
-        <v>1.125022408482906</v>
+        <v>1.110873764919575</v>
       </c>
       <c r="F5">
-        <v>0.8634409199552664</v>
+        <v>0.7762348419265379</v>
       </c>
       <c r="G5">
-        <v>0.8325286546352544</v>
+        <v>0.7161751654356721</v>
       </c>
       <c r="H5">
-        <v>0.01511303317215551</v>
+        <v>0.01358591794731046</v>
       </c>
       <c r="I5">
-        <v>0.04143159212359837</v>
+        <v>0.03391653072442402</v>
       </c>
       <c r="J5">
-        <v>0.4861787812983351</v>
+        <v>0.4917156307472226</v>
       </c>
       <c r="K5">
-        <v>0.6693270982656259</v>
+        <v>0.5581203856839352</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.3115382315012667</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1478832796225831</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -631,10 +655,16 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2.734249308919431</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>2.421433232085235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,37 +672,37 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.05218451279965208</v>
+        <v>0.04269954002995924</v>
       </c>
       <c r="D6">
-        <v>0.005157308334066357</v>
+        <v>0.007696549884354198</v>
       </c>
       <c r="E6">
-        <v>1.117425869550175</v>
+        <v>1.103404652304832</v>
       </c>
       <c r="F6">
-        <v>0.8569098609017374</v>
+        <v>0.7706345812690074</v>
       </c>
       <c r="G6">
-        <v>0.8257663945573483</v>
+        <v>0.7104472239199282</v>
       </c>
       <c r="H6">
-        <v>0.0149217689554495</v>
+        <v>0.0134140279549686</v>
       </c>
       <c r="I6">
-        <v>0.04113713202391889</v>
+        <v>0.03372653057955333</v>
       </c>
       <c r="J6">
-        <v>0.4830520654156771</v>
+        <v>0.4890326075242655</v>
       </c>
       <c r="K6">
-        <v>0.663895776469424</v>
+        <v>0.5539050914173842</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.3103969766747383</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.1458909855370862</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -684,10 +714,16 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2.713355519076003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>2.403917267244708</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,37 +731,37 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.05342250727018438</v>
+        <v>0.0437060829435123</v>
       </c>
       <c r="D7">
-        <v>0.005366084346553279</v>
+        <v>0.008102437160156128</v>
       </c>
       <c r="E7">
-        <v>1.169769179520415</v>
+        <v>1.154856351985458</v>
       </c>
       <c r="F7">
-        <v>0.8943980188919483</v>
+        <v>0.8009225482415729</v>
       </c>
       <c r="G7">
-        <v>0.863628621391527</v>
+        <v>0.7471373002192934</v>
       </c>
       <c r="H7">
-        <v>0.01622126196530116</v>
+        <v>0.01457792730022356</v>
       </c>
       <c r="I7">
-        <v>0.0433981826552694</v>
+        <v>0.03544190972593242</v>
       </c>
       <c r="J7">
-        <v>0.500242246047307</v>
+        <v>0.4955628886235814</v>
       </c>
       <c r="K7">
-        <v>0.6911998072706425</v>
+        <v>0.5730719803668975</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.3140235906199109</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.1563745074633331</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -737,10 +773,16 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2.829693361979338</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>2.494410066891504</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,37 +790,37 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.05932738095831169</v>
+        <v>0.04824743947025834</v>
       </c>
       <c r="D8">
-        <v>0.006255402388553932</v>
+        <v>0.009794710383889793</v>
       </c>
       <c r="E8">
-        <v>1.401288560139548</v>
+        <v>1.382385849426925</v>
       </c>
       <c r="F8">
-        <v>1.062746263797834</v>
+        <v>0.9396259750798208</v>
       </c>
       <c r="G8">
-        <v>1.033707859262137</v>
+        <v>0.9008733270622145</v>
       </c>
       <c r="H8">
-        <v>0.02237416939278503</v>
+        <v>0.02009667676126581</v>
       </c>
       <c r="I8">
-        <v>0.05366676441096718</v>
+        <v>0.0431734551972891</v>
       </c>
       <c r="J8">
-        <v>0.5777291836173077</v>
+        <v>0.5418547823235826</v>
       </c>
       <c r="K8">
-        <v>0.8146463874263858</v>
+        <v>0.6617490398731007</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.331081851351037</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.2058304906548116</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -790,10 +832,16 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>3.352819727312976</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>2.911226832362473</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,37 +849,37 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.07150780676395385</v>
+        <v>0.05751165777324374</v>
       </c>
       <c r="D9">
-        <v>0.007951040026378919</v>
+        <v>0.0129785897238861</v>
       </c>
       <c r="E9">
-        <v>1.858669907359101</v>
+        <v>1.8313022908969</v>
       </c>
       <c r="F9">
-        <v>1.400500160406096</v>
+        <v>1.221609287257763</v>
       </c>
       <c r="G9">
-        <v>1.374483174233973</v>
+        <v>1.188994005235628</v>
       </c>
       <c r="H9">
-        <v>0.03626200532750889</v>
+        <v>0.03254882843639395</v>
       </c>
       <c r="I9">
-        <v>0.07543769217708629</v>
+        <v>0.05941289585119502</v>
       </c>
       <c r="J9">
-        <v>0.7337262190307285</v>
+        <v>0.662136252983629</v>
       </c>
       <c r="K9">
-        <v>1.062681733690624</v>
+        <v>0.84225155062407</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.3644249445538108</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.3120497971492213</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -843,10 +891,16 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>4.402424297038692</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>3.761233801029675</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,37 +908,37 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.07995809148771116</v>
+        <v>0.06421503129503137</v>
       </c>
       <c r="D10">
-        <v>0.009472034754990588</v>
+        <v>0.01599734275911047</v>
       </c>
       <c r="E10">
-        <v>2.092389768855952</v>
+        <v>2.058624347833728</v>
       </c>
       <c r="F10">
-        <v>1.636590575698335</v>
+        <v>1.408924146819814</v>
       </c>
       <c r="G10">
-        <v>1.609705390774394</v>
+        <v>1.418112476670842</v>
       </c>
       <c r="H10">
-        <v>0.04681263079340914</v>
+        <v>0.04191272395338563</v>
       </c>
       <c r="I10">
-        <v>0.09236367039332638</v>
+        <v>0.07186936859950777</v>
       </c>
       <c r="J10">
-        <v>0.8412195350568936</v>
+        <v>0.6978774427656447</v>
       </c>
       <c r="K10">
-        <v>1.233147628341456</v>
+        <v>0.9585130466899727</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.3812893864286124</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.3877373097554795</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -896,10 +950,16 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>5.126507160520703</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>4.311580100299693</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,37 +967,37 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.084151403823995</v>
+        <v>0.06449889875878956</v>
       </c>
       <c r="D11">
-        <v>0.01272457887783318</v>
+        <v>0.0215293216821415</v>
       </c>
       <c r="E11">
-        <v>1.381174063114898</v>
+        <v>1.351323549007205</v>
       </c>
       <c r="F11">
-        <v>1.620523327674434</v>
+        <v>1.374339892984764</v>
       </c>
       <c r="G11">
-        <v>1.574048527770913</v>
+        <v>1.451410169283008</v>
       </c>
       <c r="H11">
-        <v>0.06092380588358282</v>
+        <v>0.05611246056350438</v>
       </c>
       <c r="I11">
-        <v>0.09620916764369802</v>
+        <v>0.07464727866008936</v>
       </c>
       <c r="J11">
-        <v>0.8205994500224278</v>
+        <v>0.5872576830718401</v>
       </c>
       <c r="K11">
-        <v>1.212510940334084</v>
+        <v>0.9258173177429683</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.3588522074765592</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.3870716982120044</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -949,10 +1009,16 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>5.007897920880055</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>4.133208436767461</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,37 +1026,37 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.08765679295626683</v>
+        <v>0.064222018173413</v>
       </c>
       <c r="D12">
-        <v>0.01559159484515504</v>
+        <v>0.02587289144041094</v>
       </c>
       <c r="E12">
-        <v>0.866743007857707</v>
+        <v>0.8411091977565235</v>
       </c>
       <c r="F12">
-        <v>1.560917132010474</v>
+        <v>1.31452773652083</v>
       </c>
       <c r="G12">
-        <v>1.499569700617513</v>
+        <v>1.415221002864854</v>
       </c>
       <c r="H12">
-        <v>0.09555257587177124</v>
+        <v>0.09099336777995148</v>
       </c>
       <c r="I12">
-        <v>0.09604537653790768</v>
+        <v>0.07443865662123716</v>
       </c>
       <c r="J12">
-        <v>0.7827454963713478</v>
+        <v>0.5192877250209023</v>
       </c>
       <c r="K12">
-        <v>1.164443721111553</v>
+        <v>0.8821399597276667</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.3397209357127124</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.3735591471284607</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1002,10 +1068,16 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>4.770821349218522</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>3.900861226071129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,37 +1085,37 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.08978628147674783</v>
+        <v>0.06354372001274644</v>
       </c>
       <c r="D13">
-        <v>0.01832807070667997</v>
+        <v>0.02929825253413654</v>
       </c>
       <c r="E13">
-        <v>0.473948645836856</v>
+        <v>0.4527744743677573</v>
       </c>
       <c r="F13">
-        <v>1.460814777942247</v>
+        <v>1.231591134475039</v>
       </c>
       <c r="G13">
-        <v>1.386929829150915</v>
+        <v>1.306958858310026</v>
       </c>
       <c r="H13">
-        <v>0.1471807579784468</v>
+        <v>0.1430179724940643</v>
       </c>
       <c r="I13">
-        <v>0.09288729349799763</v>
+        <v>0.07217247340140176</v>
       </c>
       <c r="J13">
-        <v>0.7274141662699094</v>
+        <v>0.4886056512928434</v>
       </c>
       <c r="K13">
-        <v>1.08761609321428</v>
+        <v>0.8253000184037234</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.3208071750047097</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.3487799755416887</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1055,10 +1127,16 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>4.416192789497586</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>3.612122361761351</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,37 +1144,37 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.09047753601543462</v>
+        <v>0.06293764881955166</v>
       </c>
       <c r="D14">
-        <v>0.0202418860002247</v>
+        <v>0.03128078546228608</v>
       </c>
       <c r="E14">
-        <v>0.2728590980779018</v>
+        <v>0.2546901148228784</v>
       </c>
       <c r="F14">
-        <v>1.372492968955129</v>
+        <v>1.162539478275733</v>
       </c>
       <c r="G14">
-        <v>1.290999964352551</v>
+        <v>1.200741314964546</v>
       </c>
       <c r="H14">
-        <v>0.1937629918803907</v>
+        <v>0.1899204122154998</v>
       </c>
       <c r="I14">
-        <v>0.08945997478792655</v>
+        <v>0.0697765889820694</v>
       </c>
       <c r="J14">
-        <v>0.6807952798152996</v>
+        <v>0.4811494164821113</v>
       </c>
       <c r="K14">
-        <v>1.020485211530072</v>
+        <v>0.778788990167314</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.307205770001012</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.3262438714986473</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1108,10 +1186,16 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>4.115200147283986</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>3.382487067416434</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,37 +1203,37 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.08992253589994448</v>
+        <v>0.06250341864856956</v>
       </c>
       <c r="D15">
-        <v>0.02064247264667074</v>
+        <v>0.03152612553633105</v>
       </c>
       <c r="E15">
-        <v>0.2328781390494221</v>
+        <v>0.2155327649835215</v>
       </c>
       <c r="F15">
-        <v>1.341648080386108</v>
+        <v>1.139688474353974</v>
       </c>
       <c r="G15">
-        <v>1.258606654007053</v>
+        <v>1.160554203298204</v>
       </c>
       <c r="H15">
-        <v>0.2053413987984385</v>
+        <v>0.2016188529739509</v>
       </c>
       <c r="I15">
-        <v>0.08800222139093705</v>
+        <v>0.06880045670574209</v>
       </c>
       <c r="J15">
-        <v>0.6653110686510217</v>
+        <v>0.484795786762561</v>
       </c>
       <c r="K15">
-        <v>0.9969477700703209</v>
+        <v>0.7634049789566149</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.3034033006639092</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.3179349791980002</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1161,10 +1245,16 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>4.0140885191081</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>3.310289391636331</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,37 +1262,37 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.08539196058909226</v>
+        <v>0.05984443762347702</v>
       </c>
       <c r="D16">
-        <v>0.01933896492338505</v>
+        <v>0.02872511138122391</v>
       </c>
       <c r="E16">
-        <v>0.2277060750688626</v>
+        <v>0.2116832143157126</v>
       </c>
       <c r="F16">
-        <v>1.261518257990645</v>
+        <v>1.087986502275029</v>
       </c>
       <c r="G16">
-        <v>1.181882717583562</v>
+        <v>1.041385929147523</v>
       </c>
       <c r="H16">
-        <v>0.189239106732785</v>
+        <v>0.1859646639356924</v>
       </c>
       <c r="I16">
-        <v>0.08153447467261454</v>
+        <v>0.06427389619603208</v>
       </c>
       <c r="J16">
-        <v>0.6308761658278854</v>
+        <v>0.5327059386887356</v>
       </c>
       <c r="K16">
-        <v>0.9394343207735147</v>
+        <v>0.7325647965092656</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.3016395568168662</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.2941357218003091</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1214,10 +1304,16 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>3.779183616130297</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>3.174622660612897</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,37 +1321,37 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.08149667158595264</v>
+        <v>0.05810874251581</v>
       </c>
       <c r="D17">
-        <v>0.0173043384177376</v>
+        <v>0.0257006004571636</v>
       </c>
       <c r="E17">
-        <v>0.3165325497433713</v>
+        <v>0.3001035914446462</v>
       </c>
       <c r="F17">
-        <v>1.246524805171703</v>
+        <v>1.082925416895534</v>
       </c>
       <c r="G17">
-        <v>1.173315032796324</v>
+        <v>1.012556835536259</v>
       </c>
       <c r="H17">
-        <v>0.1502430821054048</v>
+        <v>0.1471420665978087</v>
       </c>
       <c r="I17">
-        <v>0.07837146595187416</v>
+        <v>0.0620332094850502</v>
       </c>
       <c r="J17">
-        <v>0.6289680838805509</v>
+        <v>0.5655805969113175</v>
       </c>
       <c r="K17">
-        <v>0.9305170396453093</v>
+        <v>0.7321081102510334</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.3072057025478472</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.2870976735699102</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1267,10 +1363,16 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>3.756914314636049</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>3.185218760310761</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,37 +1380,37 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.07864895891406576</v>
+        <v>0.05741310576769632</v>
       </c>
       <c r="D18">
-        <v>0.0145616960727466</v>
+        <v>0.02210104418546521</v>
       </c>
       <c r="E18">
-        <v>0.5609505938124641</v>
+        <v>0.5423919047732539</v>
       </c>
       <c r="F18">
-        <v>1.287963538213987</v>
+        <v>1.122428221413827</v>
       </c>
       <c r="G18">
-        <v>1.225257278609888</v>
+        <v>1.048475417443527</v>
       </c>
       <c r="H18">
-        <v>0.09854612112691541</v>
+        <v>0.09538228539148719</v>
       </c>
       <c r="I18">
-        <v>0.07764579696545404</v>
+        <v>0.06142540122344453</v>
       </c>
       <c r="J18">
-        <v>0.6560678672090887</v>
+        <v>0.6040326660396005</v>
       </c>
       <c r="K18">
-        <v>0.9652082705737541</v>
+        <v>0.7623396870396277</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.3215338863489734</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.2952670719108781</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1320,10 +1422,16 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>3.923692986519029</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>3.341581070261668</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,37 +1439,37 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.07581091369409876</v>
+        <v>0.05800476272886224</v>
       </c>
       <c r="D19">
-        <v>0.01190549085557535</v>
+        <v>0.01868099974837278</v>
       </c>
       <c r="E19">
-        <v>1.012642525252971</v>
+        <v>0.9902455200996343</v>
       </c>
       <c r="F19">
-        <v>1.368491202284162</v>
+        <v>1.193007228126575</v>
       </c>
       <c r="G19">
-        <v>1.318970649120018</v>
+        <v>1.126523864686447</v>
       </c>
       <c r="H19">
-        <v>0.05730105155353016</v>
+        <v>0.05382923697722219</v>
       </c>
       <c r="I19">
-        <v>0.0794119463108931</v>
+        <v>0.06276438627212411</v>
       </c>
       <c r="J19">
-        <v>0.70270018501202</v>
+        <v>0.6483368815015353</v>
       </c>
       <c r="K19">
-        <v>1.027577141586178</v>
+        <v>0.8115846735079799</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.3405807087556241</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.31374589050683</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1373,10 +1481,16 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>4.219965109425857</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>3.598262008486756</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,37 +1498,37 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.07570528322096237</v>
+        <v>0.06264070773710806</v>
       </c>
       <c r="D20">
-        <v>0.009204043376145776</v>
+        <v>0.01527321862429076</v>
       </c>
       <c r="E20">
-        <v>2.025986799777883</v>
+        <v>1.994269335788204</v>
       </c>
       <c r="F20">
-        <v>1.565802926353754</v>
+        <v>1.356986564480962</v>
       </c>
       <c r="G20">
-        <v>1.537867739669878</v>
+        <v>1.329703177800752</v>
       </c>
       <c r="H20">
-        <v>0.04381470660866782</v>
+        <v>0.03928493543092104</v>
       </c>
       <c r="I20">
-        <v>0.08797991359465662</v>
+        <v>0.0690243913995614</v>
       </c>
       <c r="J20">
-        <v>0.8079985536343202</v>
+        <v>0.7118852790335097</v>
       </c>
       <c r="K20">
-        <v>1.177368041835265</v>
+        <v>0.9222631846392062</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.3748827264463657</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.3653041769561014</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1426,10 +1540,16 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>4.904570173120248</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>4.157378631395147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,37 +1557,37 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.08235705775387459</v>
+        <v>0.06819638550314089</v>
       </c>
       <c r="D21">
-        <v>0.009983718662057939</v>
+        <v>0.01776976529034613</v>
       </c>
       <c r="E21">
-        <v>2.370499516625699</v>
+        <v>2.33108375662772</v>
       </c>
       <c r="F21">
-        <v>1.771281479788797</v>
+        <v>1.494414902684582</v>
       </c>
       <c r="G21">
-        <v>1.746076348097716</v>
+        <v>1.634147127386285</v>
       </c>
       <c r="H21">
-        <v>0.05413038889431832</v>
+        <v>0.04831111600372573</v>
       </c>
       <c r="I21">
-        <v>0.1022885696664924</v>
+        <v>0.07903131588498624</v>
       </c>
       <c r="J21">
-        <v>0.9040425561404106</v>
+        <v>0.6110753312609347</v>
       </c>
       <c r="K21">
-        <v>1.327286796933137</v>
+        <v>1.007179213887838</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.385944446289848</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.422938212716339</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1479,10 +1599,16 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>5.54731642541509</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>4.55561622459237</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,37 +1616,37 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.08757884558449547</v>
+        <v>0.07167556808957265</v>
       </c>
       <c r="D22">
-        <v>0.01057031496256222</v>
+        <v>0.01961552193954219</v>
       </c>
       <c r="E22">
-        <v>2.543284229145613</v>
+        <v>2.498965600984548</v>
       </c>
       <c r="F22">
-        <v>1.902888159021913</v>
+        <v>1.579102487913048</v>
       </c>
       <c r="G22">
-        <v>1.87874565451969</v>
+        <v>1.844081101806836</v>
       </c>
       <c r="H22">
-        <v>0.06072640051337164</v>
+        <v>0.05403925364710993</v>
       </c>
       <c r="I22">
-        <v>0.1117087110366333</v>
+        <v>0.08544693082654398</v>
       </c>
       <c r="J22">
-        <v>0.965222808316696</v>
+        <v>0.5411685153726324</v>
       </c>
       <c r="K22">
-        <v>1.424603971878682</v>
+        <v>1.060333742467165</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.3921610861353315</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.460288540880974</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1532,10 +1658,16 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>5.956825053853038</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>4.796876956899155</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,37 +1675,37 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.0855686905613382</v>
+        <v>0.06977464438858405</v>
       </c>
       <c r="D23">
-        <v>0.01021046354216359</v>
+        <v>0.01843651872774998</v>
       </c>
       <c r="E23">
-        <v>2.45112857475165</v>
+        <v>2.409555250304365</v>
       </c>
       <c r="F23">
-        <v>1.835613354265647</v>
+        <v>1.54035660669426</v>
       </c>
       <c r="G23">
-        <v>1.811393575130154</v>
+        <v>1.719608985393791</v>
       </c>
       <c r="H23">
-        <v>0.0571971795376518</v>
+        <v>0.05099451659819287</v>
       </c>
       <c r="I23">
-        <v>0.106570326404225</v>
+        <v>0.08188339827034063</v>
       </c>
       <c r="J23">
-        <v>0.9342754307453447</v>
+        <v>0.5967959283285182</v>
       </c>
       <c r="K23">
-        <v>1.376651618281144</v>
+        <v>1.037989445843237</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.3909551594213667</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.4427841915955142</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1585,10 +1717,16 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>5.749159976962972</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>4.691390500175373</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,37 +1734,37 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.07668380781081652</v>
+        <v>0.06274448480365891</v>
       </c>
       <c r="D24">
-        <v>0.008930085994226289</v>
+        <v>0.01484462570245526</v>
       </c>
       <c r="E24">
-        <v>2.104268661667462</v>
+        <v>2.071934780085797</v>
       </c>
       <c r="F24">
-        <v>1.578015779086073</v>
+        <v>1.368034934690897</v>
       </c>
       <c r="G24">
-        <v>1.552479128074452</v>
+        <v>1.341544603470624</v>
       </c>
       <c r="H24">
-        <v>0.04453944168020918</v>
+        <v>0.03995039726204475</v>
       </c>
       <c r="I24">
-        <v>0.0880066746796766</v>
+        <v>0.06886041211585159</v>
       </c>
       <c r="J24">
-        <v>0.8152328716831221</v>
+        <v>0.7197031437036117</v>
       </c>
       <c r="K24">
-        <v>1.189490014625775</v>
+        <v>0.9324162426076725</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.3788418625975183</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.3690806114728105</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1638,10 +1776,16 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>4.950687592157465</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>4.198625399826255</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,37 +1793,37 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.06708236170045367</v>
+        <v>0.05503164144150663</v>
       </c>
       <c r="D25">
-        <v>0.007558406983219967</v>
+        <v>0.01216445803891375</v>
       </c>
       <c r="E25">
-        <v>1.734183599524428</v>
+        <v>1.709342240140259</v>
       </c>
       <c r="F25">
-        <v>1.304079724351126</v>
+        <v>1.142969432452418</v>
       </c>
       <c r="G25">
-        <v>1.276648154575696</v>
+        <v>1.098579913977318</v>
       </c>
       <c r="H25">
-        <v>0.03224630971919451</v>
+        <v>0.02896569187673492</v>
       </c>
       <c r="I25">
-        <v>0.06941397604037025</v>
+        <v>0.05511295290914298</v>
       </c>
       <c r="J25">
-        <v>0.6886830551774779</v>
+        <v>0.6384810828917011</v>
       </c>
       <c r="K25">
-        <v>0.9894555656663897</v>
+        <v>0.7897984946665062</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.354351462920917</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.2811645373865233</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -1691,7 +1835,13 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>4.100568812889151</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>3.523225304653749</v>
       </c>
     </row>
   </sheetData>
